--- a/Data/Simul/Test3/Calib_7.xlsx
+++ b/Data/Simul/Test3/Calib_7.xlsx
@@ -532,88 +532,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1407495020632299</v>
+        <v>0.1418998736378605</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1435576950625593</v>
+        <v>0.1429845399725755</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1437655923439867</v>
+        <v>0.1414296693869205</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1685820098247993</v>
+        <v>0.1389539639300557</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1957718578398426</v>
+        <v>0.1399006327850953</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2014992361854857</v>
+        <v>0.1532801273265468</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1984657809816665</v>
+        <v>0.1731032235817923</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1897520901935345</v>
+        <v>0.1839127821591867</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1933386683043</v>
+        <v>0.1609230930468233</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1906625820362967</v>
+        <v>0.1797857916583481</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1781138090461249</v>
+        <v>0.2122938884076231</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1892904637544753</v>
+        <v>0.2111701191451879</v>
       </c>
       <c r="N2" t="n">
-        <v>0.214151563674194</v>
+        <v>0.2237957669655327</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2159722866075156</v>
+        <v>0.2274594568937792</v>
       </c>
       <c r="P2" t="n">
-        <v>0.142151443216941</v>
+        <v>0.2871581719276298</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.2011954181255164</v>
+        <v>0.35037595302594</v>
       </c>
       <c r="R2" t="n">
-        <v>0.2254384718551256</v>
+        <v>0.4362247506314359</v>
       </c>
       <c r="S2" t="n">
-        <v>0.2130866136123542</v>
+        <v>0.4090711694620926</v>
       </c>
       <c r="T2" t="n">
-        <v>0.3106181401128885</v>
+        <v>0.3169712190275925</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2904932087151763</v>
+        <v>0.2526553887033358</v>
       </c>
       <c r="V2" t="n">
-        <v>0.3731479124696254</v>
+        <v>0.4379491276974393</v>
       </c>
       <c r="W2" t="n">
-        <v>0.5601303201798711</v>
+        <v>0.2899969512756809</v>
       </c>
       <c r="X2" t="n">
-        <v>0.6315712256476054</v>
+        <v>0.3506139774558701</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.7342315164936578</v>
+        <v>0.1726113191951323</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.7469049189928537</v>
+        <v>0.3696818997757302</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.7795441844567159</v>
+        <v>0.3513261228808969</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.7468427207750086</v>
+        <v>0.4513258273048268</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.6598189419889329</v>
+        <v>0.280738454013475</v>
       </c>
     </row>
     <row r="3">
@@ -623,88 +623,88 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1494235391239664</v>
+        <v>0.1460039015009606</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1410068960444937</v>
+        <v>0.142200040271187</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1418438844809267</v>
+        <v>0.1472407647162062</v>
       </c>
       <c r="E3" t="n">
-        <v>0.103026300761567</v>
+        <v>0.1543378278191365</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05464242649090884</v>
+        <v>0.1514865842953817</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03913648905139851</v>
+        <v>0.1283839119022537</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05671625267008967</v>
+        <v>0.1067525025564834</v>
       </c>
       <c r="I3" t="n">
-        <v>0.08380906172069424</v>
+        <v>0.08495937130227703</v>
       </c>
       <c r="J3" t="n">
-        <v>0.08859426082380885</v>
+        <v>0.1245306126466317</v>
       </c>
       <c r="K3" t="n">
-        <v>0.05190798788703108</v>
+        <v>0.08970617332239565</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03357907127540811</v>
+        <v>0.05911671415162203</v>
       </c>
       <c r="M3" t="n">
-        <v>0.06189445343602346</v>
+        <v>0.07807572053412631</v>
       </c>
       <c r="N3" t="n">
-        <v>0.06394420299204566</v>
+        <v>0.05099990463474122</v>
       </c>
       <c r="O3" t="n">
-        <v>0.02191956078598385</v>
+        <v>0.09742390302175334</v>
       </c>
       <c r="P3" t="n">
-        <v>0.008700167330311849</v>
+        <v>0.07561099308640915</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.02455198041437926</v>
+        <v>0.05585334560791382</v>
       </c>
       <c r="R3" t="n">
-        <v>0.05464783375707627</v>
+        <v>0.03147171281516104</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1182564006037271</v>
+        <v>0.0513458036306161</v>
       </c>
       <c r="T3" t="n">
-        <v>0.06494028734255514</v>
+        <v>0.09068878867425888</v>
       </c>
       <c r="U3" t="n">
-        <v>0.00588542735562161</v>
+        <v>0.122805270819272</v>
       </c>
       <c r="V3" t="n">
-        <v>0.007373106201846194</v>
+        <v>0.05827375962459928</v>
       </c>
       <c r="W3" t="n">
-        <v>0.006822346315328704</v>
+        <v>0.1161767958640716</v>
       </c>
       <c r="X3" t="n">
-        <v>0.001810019389734176</v>
+        <v>0.0855607569958421</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.002620871006127929</v>
+        <v>0.1433489647444125</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.006411080345887606</v>
+        <v>0.0699488845095384</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.0009931642684808187</v>
+        <v>0.02457043286372475</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.0001161829557151056</v>
+        <v>0.006957203126369559</v>
       </c>
       <c r="AC3" t="n">
-        <v>2.246908818045542e-05</v>
+        <v>0.001376044307680023</v>
       </c>
     </row>
     <row r="4">
@@ -714,88 +714,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1494235493712611</v>
+        <v>0.1460039062455294</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1410068929155071</v>
+        <v>0.1422000394883391</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1418438812991811</v>
+        <v>0.1472407716129083</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1030269113992171</v>
+        <v>0.1543378464283445</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0546433338597394</v>
+        <v>0.1514865983314144</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03913729037574625</v>
+        <v>0.128384198959523</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05671726039301372</v>
+        <v>0.1067533335199919</v>
       </c>
       <c r="I4" t="n">
-        <v>0.08381036621815061</v>
+        <v>0.0849602386973318</v>
       </c>
       <c r="J4" t="n">
-        <v>0.079786646059317</v>
+        <v>0.1245311753360402</v>
       </c>
       <c r="K4" t="n">
-        <v>0.09821947898213075</v>
+        <v>0.08970690432848513</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1102726161376255</v>
+        <v>0.0952327351643012</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0936164909688753</v>
+        <v>0.08554859462950125</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0842812525013148</v>
+        <v>0.09752966352179862</v>
       </c>
       <c r="O4" t="n">
-        <v>0.108736277674022</v>
+        <v>0.06183439366035233</v>
       </c>
       <c r="P4" t="n">
-        <v>0.12006952106706</v>
+        <v>0.05360380297828652</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1056146975524868</v>
+        <v>0.05243580626108296</v>
       </c>
       <c r="R4" t="n">
-        <v>0.08507575322812107</v>
+        <v>0.04633143558432552</v>
       </c>
       <c r="S4" t="n">
-        <v>0.05039047996987447</v>
+        <v>0.03248813141205784</v>
       </c>
       <c r="T4" t="n">
-        <v>0.04860821176318682</v>
+        <v>0.0162068851456866</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09871460550659854</v>
+        <v>0.01057981047941008</v>
       </c>
       <c r="V4" t="n">
-        <v>0.06677992615560113</v>
+        <v>0.009269653210667908</v>
       </c>
       <c r="W4" t="n">
-        <v>0.01548024447594452</v>
+        <v>0.00338792448775472</v>
       </c>
       <c r="X4" t="n">
-        <v>0.007220863046896802</v>
+        <v>0.01520896272484709</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.001438112858569232</v>
+        <v>0.003295266771928502</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.0004569054992263689</v>
+        <v>0.006212552648736781</v>
       </c>
       <c r="AA4" t="n">
-        <v>5.22706638561781e-05</v>
+        <v>0.009245553337388407</v>
       </c>
       <c r="AB4" t="n">
-        <v>3.788538938841235e-06</v>
+        <v>0.001442324683967713</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.091107964395247e-07</v>
+        <v>0.0003986040026009244</v>
       </c>
     </row>
     <row r="5">
@@ -805,88 +805,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1494274069555787</v>
+        <v>0.1460056923171733</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1410057149989314</v>
+        <v>0.1421997448078831</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1418426834036497</v>
+        <v>0.147243367874227</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1030153242768643</v>
+        <v>0.1543448519182708</v>
       </c>
       <c r="F5" t="n">
-        <v>0.05462698733202147</v>
+        <v>0.1514918822376833</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03912293540674683</v>
+        <v>0.1283838658539745</v>
       </c>
       <c r="H5" t="n">
-        <v>0.05669914102945231</v>
+        <v>0.1067427009138939</v>
       </c>
       <c r="I5" t="n">
-        <v>0.08378681776234817</v>
+        <v>0.08494817405481896</v>
       </c>
       <c r="J5" t="n">
-        <v>0.08550972888191612</v>
+        <v>0.1245258823329063</v>
       </c>
       <c r="K5" t="n">
-        <v>0.08380860691550816</v>
+        <v>0.08969739770244432</v>
       </c>
       <c r="L5" t="n">
-        <v>0.07791988908335848</v>
+        <v>0.1058482082558238</v>
       </c>
       <c r="M5" t="n">
-        <v>0.08333375898524856</v>
+        <v>0.1055968256991144</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0947051727795714</v>
+        <v>0.1114415099673451</v>
       </c>
       <c r="O5" t="n">
-        <v>0.09625812395178283</v>
+        <v>0.1148976231874655</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0639158379886023</v>
+        <v>0.1455883019833482</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.08953969591511771</v>
+        <v>0.1777339445643656</v>
       </c>
       <c r="R5" t="n">
-        <v>0.09960398977366154</v>
+        <v>0.2205417354048397</v>
       </c>
       <c r="S5" t="n">
-        <v>0.09319275881523946</v>
+        <v>0.2054631822192917</v>
       </c>
       <c r="T5" t="n">
-        <v>0.1325926691159441</v>
+        <v>0.1575378935186504</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1594593445478784</v>
+        <v>0.1250067171342436</v>
       </c>
       <c r="V5" t="n">
-        <v>0.1879413154438764</v>
+        <v>0.2107010549526474</v>
       </c>
       <c r="W5" t="n">
-        <v>0.2491430250636115</v>
+        <v>0.1248644526123121</v>
       </c>
       <c r="X5" t="n">
-        <v>0.2648247284748232</v>
+        <v>0.1678681736423294</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.2212232697869578</v>
+        <v>0.07013577611903307</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.1854786293612674</v>
+        <v>0.229476401555494</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.2089637712197327</v>
+        <v>0.4767283231017157</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.2517096426448583</v>
+        <v>0.501337869922891</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.3398903087335631</v>
+        <v>0.7090466941957299</v>
       </c>
     </row>
     <row r="6">
@@ -896,88 +896,88 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1330509811295149</v>
+        <v>0.1381009652299598</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1455112308467617</v>
+        <v>0.1439271773762652</v>
       </c>
       <c r="D6" t="n">
-        <v>0.143756567845974</v>
+        <v>0.1363322029586254</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1768814152606747</v>
+        <v>0.1259475453066648</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2216834459085054</v>
+        <v>0.1301700872239429</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2388519537477718</v>
+        <v>0.1508790614753705</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2160421032772545</v>
+        <v>0.1631886353887292</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1848167534191273</v>
+        <v>0.1844333209497409</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1744350262255055</v>
+        <v>0.1490929817682026</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2201362225824521</v>
+        <v>0.1814935958060374</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2527552005508689</v>
+        <v>0.1877651163682952</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2092715465964352</v>
+        <v>0.1668031252702785</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1823550563234764</v>
+        <v>0.1890249667356362</v>
       </c>
       <c r="O6" t="n">
-        <v>0.2413958294571124</v>
+        <v>0.1145008440001761</v>
       </c>
       <c r="P6" t="n">
-        <v>0.3215453468318377</v>
+        <v>0.09303859477856651</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.2489309628731019</v>
+        <v>0.07682686452208808</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1833137446895452</v>
+        <v>0.05977840487508726</v>
       </c>
       <c r="S6" t="n">
-        <v>0.09567789726348742</v>
+        <v>0.0388436615674447</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1094449681645555</v>
+        <v>0.01741278788742598</v>
       </c>
       <c r="U6" t="n">
-        <v>0.2146234257804154</v>
+        <v>0.01077664931084915</v>
       </c>
       <c r="V6" t="n">
-        <v>0.178872990607341</v>
+        <v>0.01226055453847394</v>
       </c>
       <c r="W6" t="n">
-        <v>0.08580511390836849</v>
+        <v>0.00523127059802527</v>
       </c>
       <c r="X6" t="n">
-        <v>0.05707863283996416</v>
+        <v>0.0129550439957382</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.01173584890999136</v>
+        <v>0.00344239806348927</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.003834246344493415</v>
+        <v>0.01042086550170663</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.0004669139728383904</v>
+        <v>0.01615995564638237</v>
       </c>
       <c r="AB6" t="n">
-        <v>3.642204309533361e-05</v>
+        <v>0.002611144526951568</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.124764558397508e-06</v>
+        <v>0.0007614878976392428</v>
       </c>
     </row>
     <row r="7">
@@ -987,88 +987,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.144493746115304</v>
+        <v>0.1436933670614558</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1424860789529989</v>
+        <v>0.1426143535273657</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1431422736862201</v>
+        <v>0.1439309197536794</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1687391419418205</v>
+        <v>0.1455028362035581</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1975720455986929</v>
+        <v>0.1448270368777609</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2043504459403557</v>
+        <v>0.15952302192902</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1996378901105588</v>
+        <v>0.1796773133816058</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1888723123418899</v>
+        <v>0.1920211430028433</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2034749789321322</v>
+        <v>0.1667005123258993</v>
       </c>
       <c r="K7" t="n">
-        <v>0.134983103017577</v>
+        <v>0.1878235931674991</v>
       </c>
       <c r="L7" t="n">
-        <v>0.09484560913532622</v>
+        <v>0.1513137212719008</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1531469984125827</v>
+        <v>0.1852790232645058</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1776217279103841</v>
+        <v>0.1372563788595187</v>
       </c>
       <c r="O7" t="n">
-        <v>0.07417174906304579</v>
+        <v>0.2684519106281879</v>
       </c>
       <c r="P7" t="n">
-        <v>0.03085145038410642</v>
+        <v>0.250762479321697</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.08357687707287356</v>
+        <v>0.2067890012732007</v>
       </c>
       <c r="R7" t="n">
-        <v>0.1679709365217122</v>
+        <v>0.1422548082296821</v>
       </c>
       <c r="S7" t="n">
-        <v>0.3316286976616561</v>
+        <v>0.2211422732160955</v>
       </c>
       <c r="T7" t="n">
-        <v>0.2337368850003673</v>
+        <v>0.3822298068430903</v>
       </c>
       <c r="U7" t="n">
-        <v>0.02684293295905183</v>
+        <v>0.4663561905405844</v>
       </c>
       <c r="V7" t="n">
-        <v>0.03781825907037283</v>
+        <v>0.2602600585601388</v>
       </c>
       <c r="W7" t="n">
-        <v>0.0391520697581303</v>
+        <v>0.4560059672755056</v>
       </c>
       <c r="X7" t="n">
-        <v>0.01457272499859833</v>
+        <v>0.3520453841302421</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.02392965125601659</v>
+        <v>0.6035220567240316</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.0553081104878489</v>
+        <v>0.3061961793948879</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.009775224006134229</v>
+        <v>0.1090965701844132</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.001274439038598674</v>
+        <v>0.03419296035763762</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.0002665015783586825</v>
+        <v>0.007032530426321983</v>
       </c>
     </row>
     <row r="8">
@@ -1078,88 +1078,88 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.133431275241145</v>
+        <v>0.1382922940070606</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1454254911787479</v>
+        <v>0.1438741045563843</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1438051169400618</v>
+        <v>0.1365823036974332</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1767288965350571</v>
+        <v>0.1265751283939695</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2210599029702895</v>
+        <v>0.1306371782487215</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2379016492924952</v>
+        <v>0.1511658125533114</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2157215715379645</v>
+        <v>0.1637822906575034</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1851525983442554</v>
+        <v>0.1847649698338012</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1748606907730203</v>
+        <v>0.1496957425434966</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2202820185790042</v>
+        <v>0.1817865440147902</v>
       </c>
       <c r="L8" t="n">
-        <v>0.252513804771288</v>
+        <v>0.1884296163804338</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2094462878463594</v>
+        <v>0.1675265914572858</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1829410238190136</v>
+        <v>0.1899518093154273</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2415461724605376</v>
+        <v>0.1154318686082858</v>
       </c>
       <c r="P8" t="n">
-        <v>0.3127662331811408</v>
+        <v>0.09423765592406301</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.2465903680465243</v>
+        <v>0.07998508474540901</v>
       </c>
       <c r="R8" t="n">
-        <v>0.1839492701747582</v>
+        <v>0.06339715245946863</v>
       </c>
       <c r="S8" t="n">
-        <v>0.09776715207366141</v>
+        <v>0.04164577849240159</v>
       </c>
       <c r="T8" t="n">
-        <v>0.1000588385005026</v>
+        <v>0.01895261890329542</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2039810551352579</v>
+        <v>0.01181997301230496</v>
       </c>
       <c r="V8" t="n">
-        <v>0.148066490051337</v>
+        <v>0.01128579141603338</v>
       </c>
       <c r="W8" t="n">
-        <v>0.04346688029874533</v>
+        <v>0.004336637886649747</v>
       </c>
       <c r="X8" t="n">
-        <v>0.02292180560237813</v>
+        <v>0.01574770105513113</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.004820729688679146</v>
+        <v>0.003644218381972696</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.001606108968422722</v>
+        <v>0.008063216613906106</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.0002044714122418093</v>
+        <v>0.01287304198547878</v>
       </c>
       <c r="AB8" t="n">
-        <v>1.680400378520194e-05</v>
+        <v>0.002132670077355743</v>
       </c>
       <c r="AC8" t="n">
-        <v>5.447356100556573e-07</v>
+        <v>0.0006461851565529606</v>
       </c>
     </row>
   </sheetData>
@@ -1274,88 +1274,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1391664849582982</v>
+        <v>0.1446980710487023</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1417090228794613</v>
+        <v>0.1473472918492349</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1439939108775122</v>
+        <v>0.1452776502653887</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1590816332593692</v>
+        <v>0.1451572574307874</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1318502370167859</v>
+        <v>0.1473223283296949</v>
       </c>
       <c r="G2" t="n">
-        <v>0.14699122188543</v>
+        <v>0.1220208867952875</v>
       </c>
       <c r="H2" t="n">
-        <v>0.09096043060311136</v>
+        <v>0.1473294869539249</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1167190778705646</v>
+        <v>0.1608977928824945</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1133251297131102</v>
+        <v>0.122528619730725</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1318757558033485</v>
+        <v>0.07940490298706085</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1547406306243631</v>
+        <v>0.06781097740077228</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1344397073493154</v>
+        <v>0.0836566028072231</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1564224579555495</v>
+        <v>0.09279027258281658</v>
       </c>
       <c r="O2" t="n">
-        <v>0.09647399936390393</v>
+        <v>0.09927567162661</v>
       </c>
       <c r="P2" t="n">
-        <v>0.07662950606153729</v>
+        <v>0.07713284546892256</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.1303443947029953</v>
+        <v>0.04401676617464865</v>
       </c>
       <c r="R2" t="n">
-        <v>0.07409346717199887</v>
+        <v>0.02509818098833849</v>
       </c>
       <c r="S2" t="n">
-        <v>0.03006265625642452</v>
+        <v>0.01230520715138698</v>
       </c>
       <c r="T2" t="n">
-        <v>0.1089527901667156</v>
+        <v>0.005445929348594775</v>
       </c>
       <c r="U2" t="n">
-        <v>0.05163908982372326</v>
+        <v>0.002280173186083305</v>
       </c>
       <c r="V2" t="n">
-        <v>0.0253692681137985</v>
+        <v>0.001719518084617528</v>
       </c>
       <c r="W2" t="n">
-        <v>0.01286641670001185</v>
+        <v>0.000433095348201606</v>
       </c>
       <c r="X2" t="n">
-        <v>0.009173549630544228</v>
+        <v>0.001095383017179493</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.02007597621832014</v>
+        <v>0.0003812546794622732</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.01158978289822802</v>
+        <v>0.001469429058040634</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.004012855182118281</v>
+        <v>0.0007240724581501855</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.01177670268051325</v>
+        <v>0.0009486022769754565</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.001668590199654139</v>
+        <v>0.0002576295445602119</v>
       </c>
     </row>
     <row r="3">
@@ -1365,88 +1365,88 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1535091887721334</v>
+        <v>0.1376052880686057</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1452535697005149</v>
+        <v>0.1256951051523339</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1356838857852431</v>
+        <v>0.1379591359272048</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1067404365429815</v>
+        <v>0.139952320056332</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1558679662987765</v>
+        <v>0.131883149034867</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1463965704660908</v>
+        <v>0.1732456844428416</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2243480971871365</v>
+        <v>0.1389286467564505</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1865051050782331</v>
+        <v>0.1188702813197296</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2187614613780545</v>
+        <v>0.179981712319449</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1495615050534306</v>
+        <v>0.2400854310904869</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1494649375431144</v>
+        <v>0.3852324511173953</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2372661008670073</v>
+        <v>0.100979858586776</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2118946627375814</v>
+        <v>0.07776787629849914</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4155183602731074</v>
+        <v>0.2187655970638165</v>
       </c>
       <c r="P3" t="n">
-        <v>0.4839456016271811</v>
+        <v>0.4024695333970822</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.3120708893682161</v>
+        <v>0.5981073451703188</v>
       </c>
       <c r="R3" t="n">
-        <v>0.5069703451423058</v>
+        <v>0.7056252219500528</v>
       </c>
       <c r="S3" t="n">
-        <v>0.627397098755602</v>
+        <v>0.7777992059055335</v>
       </c>
       <c r="T3" t="n">
-        <v>0.4490145758164705</v>
+        <v>0.8200441901638255</v>
       </c>
       <c r="U3" t="n">
-        <v>0.5729037598058824</v>
+        <v>0.8501129655340445</v>
       </c>
       <c r="V3" t="n">
-        <v>0.649743518804864</v>
+        <v>0.8402801399712183</v>
       </c>
       <c r="W3" t="n">
-        <v>0.6674204760389214</v>
+        <v>0.8698987239678216</v>
       </c>
       <c r="X3" t="n">
-        <v>0.6831879926682919</v>
+        <v>0.8396829462112427</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.6418430168248077</v>
+        <v>0.8610226702515409</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.6669554072042414</v>
+        <v>0.8418790112208763</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.7010269220410708</v>
+        <v>0.8498819854067207</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.6787118898474437</v>
+        <v>0.8330079005945417</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.6684324618370302</v>
+        <v>0.819058923527981</v>
       </c>
     </row>
     <row r="4">
@@ -1456,88 +1456,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1535092062511403</v>
+        <v>0.1376052794655213</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1452535745346486</v>
+        <v>0.1256950815800286</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1356838778148711</v>
+        <v>0.1379591259613458</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1067407490987323</v>
+        <v>0.1399523116134871</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1558677901132902</v>
+        <v>0.1318831297546228</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1463972499557411</v>
+        <v>0.1732448597847825</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2243471052637718</v>
+        <v>0.1389288695171005</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1865049083326526</v>
+        <v>0.1188708245426367</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1701481927527432</v>
+        <v>0.1799813811677891</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1944733984381363</v>
+        <v>0.2400834020391324</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1673274048484259</v>
+        <v>0.1566411667034206</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1412493426766172</v>
+        <v>0.3414839952746327</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1149733780710879</v>
+        <v>0.3386430059954466</v>
       </c>
       <c r="O4" t="n">
-        <v>0.05542723928356035</v>
+        <v>0.1973339240808975</v>
       </c>
       <c r="P4" t="n">
-        <v>0.03836958701850404</v>
+        <v>0.1029099439948649</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0898257625769117</v>
+        <v>0.04276305769079354</v>
       </c>
       <c r="R4" t="n">
-        <v>0.03804194152337328</v>
+        <v>0.01846437772730621</v>
       </c>
       <c r="S4" t="n">
-        <v>0.009333820187688179</v>
+        <v>0.006129944826770645</v>
       </c>
       <c r="T4" t="n">
-        <v>0.01889178323413029</v>
+        <v>0.001712978851767659</v>
       </c>
       <c r="U4" t="n">
-        <v>0.004443897824149001</v>
+        <v>0.0004713372377992895</v>
       </c>
       <c r="V4" t="n">
-        <v>0.001398854511313176</v>
+        <v>8.840803479932154e-05</v>
       </c>
       <c r="W4" t="n">
-        <v>0.0003337682765420855</v>
+        <v>1.088831644772463e-05</v>
       </c>
       <c r="X4" t="n">
-        <v>0.0001716524062265654</v>
+        <v>8.612749523577459e-06</v>
       </c>
       <c r="Y4" t="n">
-        <v>6.048819510915556e-05</v>
+        <v>1.486442959467072e-06</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.953139802173081e-05</v>
+        <v>2.817317111166406e-06</v>
       </c>
       <c r="AA4" t="n">
-        <v>2.321717612124248e-06</v>
+        <v>5.188610794556456e-07</v>
       </c>
       <c r="AB4" t="n">
-        <v>4.170508285964241e-07</v>
+        <v>1.627394779422922e-08</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.280988815094319e-08</v>
+        <v>3.97039964948486e-10</v>
       </c>
     </row>
     <row r="5">
@@ -1547,88 +1547,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.153515786292536</v>
+        <v>0.1376020408125095</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1452553944363968</v>
+        <v>0.1256862081314601</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1356808776445419</v>
+        <v>0.1379553741366634</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1067328145744983</v>
+        <v>0.1399491329754141</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1558672628762862</v>
+        <v>0.1318758716164579</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1463819806665086</v>
+        <v>0.1732493014093645</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2243592538579716</v>
+        <v>0.1389169731449605</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1865040296651393</v>
+        <v>0.1188544806714168</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1814103812848893</v>
+        <v>0.1799768045612437</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2104439206547387</v>
+        <v>0.2401050516625727</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2477148664766305</v>
+        <v>0.2066219835455389</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2154764577375257</v>
+        <v>0.2505099956369657</v>
       </c>
       <c r="N5" t="n">
-        <v>0.2528607275012536</v>
+        <v>0.2779235842543716</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1549438982054129</v>
+        <v>0.3022080869397692</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1226818747818876</v>
+        <v>0.2374267102676571</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.2110218987387958</v>
+        <v>0.1344636562670006</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1190925065969661</v>
+        <v>0.07618204087534772</v>
       </c>
       <c r="S5" t="n">
-        <v>0.04770093278951559</v>
+        <v>0.03702803346917319</v>
       </c>
       <c r="T5" t="n">
-        <v>0.175386647453297</v>
+        <v>0.01622298052929069</v>
       </c>
       <c r="U5" t="n">
-        <v>0.07277920432826919</v>
+        <v>0.006729824368912555</v>
       </c>
       <c r="V5" t="n">
-        <v>0.03306974716142955</v>
+        <v>0.004152912638536947</v>
       </c>
       <c r="W5" t="n">
-        <v>0.014762104458267</v>
+        <v>0.0009141443490714489</v>
       </c>
       <c r="X5" t="n">
-        <v>0.01002894223300085</v>
+        <v>0.002088257489751832</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.01408034127108115</v>
+        <v>0.0006451676167027139</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.00738175962283871</v>
+        <v>0.00303554633305735</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.00213048223977217</v>
+        <v>0.001273608423694582</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.00356719181515253</v>
+        <v>0.00087791373022157</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.000406488137486525</v>
+        <v>0.0001321439095127712</v>
       </c>
     </row>
     <row r="6">
@@ -1638,88 +1638,88 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1272423623305174</v>
+        <v>0.150537980871128</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1396805863871278</v>
+        <v>0.1695844623694377</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1547978109560049</v>
+        <v>0.1492792257881185</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1830689810468299</v>
+        <v>0.1457457411263925</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1366362513998173</v>
+        <v>0.158280508860428</v>
       </c>
       <c r="G6" t="n">
-        <v>0.136321567139653</v>
+        <v>0.1212430896947988</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0747260756207391</v>
+        <v>0.1479341655436324</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1059791022697616</v>
+        <v>0.1646419502260298</v>
       </c>
       <c r="J6" t="n">
-        <v>0.09603835782785207</v>
+        <v>0.1109190397907787</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1072753802918078</v>
+        <v>0.0630415082385416</v>
       </c>
       <c r="L6" t="n">
-        <v>0.08624257138697623</v>
+        <v>0.03993607401120446</v>
       </c>
       <c r="M6" t="n">
-        <v>0.07261721987333498</v>
+        <v>0.09203814836269807</v>
       </c>
       <c r="N6" t="n">
-        <v>0.05662673216613449</v>
+        <v>0.08888312146465817</v>
       </c>
       <c r="O6" t="n">
-        <v>0.02584990903562918</v>
+        <v>0.04832942719530109</v>
       </c>
       <c r="P6" t="n">
-        <v>0.01727065600781082</v>
+        <v>0.02410882781272329</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.0384392326827283</v>
+        <v>0.009270700803264502</v>
       </c>
       <c r="R6" t="n">
-        <v>0.01515924539140245</v>
+        <v>0.003725432668915432</v>
       </c>
       <c r="S6" t="n">
-        <v>0.003320557725145389</v>
+        <v>0.001114814633939772</v>
       </c>
       <c r="T6" t="n">
-        <v>0.00869666324020154</v>
+        <v>0.0002752118048307599</v>
       </c>
       <c r="U6" t="n">
-        <v>0.002447310196345811</v>
+        <v>6.758442221739484e-05</v>
       </c>
       <c r="V6" t="n">
-        <v>0.0008713283423947784</v>
+        <v>1.917472192288107e-05</v>
       </c>
       <c r="W6" t="n">
-        <v>0.0002571311300188183</v>
+        <v>2.837836465747785e-06</v>
       </c>
       <c r="X6" t="n">
-        <v>0.0001467299836913732</v>
+        <v>3.437630714427662e-06</v>
       </c>
       <c r="Y6" t="n">
-        <v>5.30636394512498e-05</v>
+        <v>7.234260592725214e-07</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.73858308252052e-05</v>
+        <v>3.327461491602998e-06</v>
       </c>
       <c r="AA6" t="n">
-        <v>2.122137975581076e-06</v>
+        <v>6.276457250629704e-07</v>
       </c>
       <c r="AB6" t="n">
-        <v>3.913775473299726e-07</v>
+        <v>2.032219093809572e-08</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.269093012635975e-08</v>
+        <v>5.131094809344971e-10</v>
       </c>
     </row>
     <row r="7">
@@ -1729,88 +1729,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1452440872369973</v>
+        <v>0.1416885005780146</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1430965210894241</v>
+        <v>0.1375753022065149</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1399928238527731</v>
+        <v>0.1424185665537596</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1556762200004747</v>
+        <v>0.1434213283488762</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1276979614400661</v>
+        <v>0.1409237870422338</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1410998291245725</v>
+        <v>0.1158271072235241</v>
       </c>
       <c r="H7" t="n">
-        <v>0.08623567038556179</v>
+        <v>0.1401204583501231</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1117047437348982</v>
+        <v>0.1533865394424826</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1241379570976697</v>
+        <v>0.1154137343386292</v>
       </c>
       <c r="K7" t="n">
-        <v>0.09874289339375444</v>
+        <v>0.07384040385510852</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1075375655153288</v>
+        <v>0.1034846471069965</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1257064436450935</v>
+        <v>0.03887957106904615</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1499302934400394</v>
+        <v>0.03453092920463416</v>
       </c>
       <c r="O7" t="n">
-        <v>0.225433199031576</v>
+        <v>0.08520236099297124</v>
       </c>
       <c r="P7" t="n">
-        <v>0.2434062549724076</v>
+        <v>0.131488696489519</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.1784262182831614</v>
+        <v>0.1618677479682431</v>
       </c>
       <c r="R7" t="n">
-        <v>0.2307588842566031</v>
+        <v>0.1670434659354088</v>
       </c>
       <c r="S7" t="n">
-        <v>0.2786500522875377</v>
+        <v>0.1644500115258957</v>
       </c>
       <c r="T7" t="n">
-        <v>0.2312625903338657</v>
+        <v>0.15600399318438</v>
       </c>
       <c r="U7" t="n">
-        <v>0.2938442155529388</v>
+        <v>0.1402645472924348</v>
       </c>
       <c r="V7" t="n">
-        <v>0.288910543106309</v>
+        <v>0.1537240658225706</v>
       </c>
       <c r="W7" t="n">
-        <v>0.3041971661548976</v>
+        <v>0.1287382483306742</v>
       </c>
       <c r="X7" t="n">
-        <v>0.2972043063391754</v>
+        <v>0.1571194809361275</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.3238551304368965</v>
+        <v>0.1379483508164555</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.3140255467253729</v>
+        <v>0.1536089314600082</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.2928239804099204</v>
+        <v>0.1481190074481994</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.3059431602021779</v>
+        <v>0.1651655408430194</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.3294924260143861</v>
+        <v>0.1805513019536324</v>
       </c>
     </row>
     <row r="8">
@@ -1820,88 +1820,88 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1278128841583774</v>
+        <v>0.1502628391555184</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1397513309724266</v>
+        <v>0.1684165487109897</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1541668130690537</v>
+        <v>0.1491509213675192</v>
       </c>
       <c r="E8" t="n">
-        <v>0.181959165477114</v>
+        <v>0.1458219084487107</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1362125308549778</v>
+        <v>0.1578312253616956</v>
       </c>
       <c r="G8" t="n">
-        <v>0.136411580762004</v>
+        <v>0.121169070649401</v>
       </c>
       <c r="H8" t="n">
-        <v>0.07502336708170798</v>
+        <v>0.1478413997338081</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1060830330487505</v>
+        <v>0.1644781309152099</v>
       </c>
       <c r="J8" t="n">
-        <v>0.09617851994568093</v>
+        <v>0.1111987080913853</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1076271463647836</v>
+        <v>0.06343930012709714</v>
       </c>
       <c r="L8" t="n">
-        <v>0.08697202360516108</v>
+        <v>0.04027270011467201</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0732447278511059</v>
+        <v>0.0924518282626583</v>
       </c>
       <c r="N8" t="n">
-        <v>0.05729174812835355</v>
+        <v>0.08946121019957379</v>
       </c>
       <c r="O8" t="n">
-        <v>0.02635339480681024</v>
+        <v>0.04888493210063443</v>
       </c>
       <c r="P8" t="n">
-        <v>0.01769651953067173</v>
+        <v>0.02446344256923096</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.03987160364719131</v>
+        <v>0.00951072592573088</v>
       </c>
       <c r="R8" t="n">
-        <v>0.01588360991735057</v>
+        <v>0.003861279854630515</v>
       </c>
       <c r="S8" t="n">
-        <v>0.003534881998086493</v>
+        <v>0.001172782487300139</v>
       </c>
       <c r="T8" t="n">
-        <v>0.007794949755319423</v>
+        <v>0.0002947161173107385</v>
       </c>
       <c r="U8" t="n">
-        <v>0.001942522468691368</v>
+        <v>7.35679585082892e-05</v>
       </c>
       <c r="V8" t="n">
-        <v>0.0006367399598908558</v>
+        <v>1.578072633460886e-05</v>
       </c>
       <c r="W8" t="n">
-        <v>0.0001629372413412257</v>
+        <v>2.061851317844646e-06</v>
       </c>
       <c r="X8" t="n">
-        <v>8.682673906964497e-05</v>
+        <v>1.881965460621299e-06</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.198341433409952e-05</v>
+        <v>3.467668198885458e-07</v>
       </c>
       <c r="Z8" t="n">
-        <v>1.058632047202041e-05</v>
+        <v>9.371494149944028e-07</v>
       </c>
       <c r="AA8" t="n">
-        <v>1.316271530619218e-06</v>
+        <v>1.797564307038459e-07</v>
       </c>
       <c r="AB8" t="n">
-        <v>2.470263369464789e-07</v>
+        <v>5.959103114949669e-09</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.310624929319817e-09</v>
+        <v>1.541642671839024e-10</v>
       </c>
     </row>
   </sheetData>
@@ -2016,88 +2016,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1407098109466433</v>
+        <v>0.1460048039806418</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1421871286199376</v>
+        <v>0.1475631274065546</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1425469187477869</v>
+        <v>0.1490302215155583</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1626973773406807</v>
+        <v>0.1494819752510871</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1490817596819598</v>
+        <v>0.1496483172993509</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1655832403687317</v>
+        <v>0.1087621070159033</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1856519396935784</v>
+        <v>0.0906742851764098</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1963437594828693</v>
+        <v>0.09295562844309965</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2108553729173115</v>
+        <v>0.07334231330438938</v>
       </c>
       <c r="K2" t="n">
-        <v>0.235015539081515</v>
+        <v>0.05720881217634306</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2582670990762977</v>
+        <v>0.05242150120537051</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2590351299099622</v>
+        <v>0.05482492319284345</v>
       </c>
       <c r="N2" t="n">
-        <v>0.176769899787655</v>
+        <v>0.06762440314752191</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1281137889492957</v>
+        <v>0.05994286323872539</v>
       </c>
       <c r="P2" t="n">
-        <v>0.08896916019805086</v>
+        <v>0.04501144910053726</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.07457907582148017</v>
+        <v>0.05020971417872353</v>
       </c>
       <c r="R2" t="n">
-        <v>0.05532273919947706</v>
+        <v>0.04534126367055411</v>
       </c>
       <c r="S2" t="n">
-        <v>0.02040655869662485</v>
+        <v>0.06251310148906503</v>
       </c>
       <c r="T2" t="n">
-        <v>0.03741051755126645</v>
+        <v>0.05011432511322571</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01938057747403544</v>
+        <v>0.0348642695851712</v>
       </c>
       <c r="V2" t="n">
-        <v>0.02113300897738796</v>
+        <v>0.01922463208002131</v>
       </c>
       <c r="W2" t="n">
-        <v>0.01109175348573742</v>
+        <v>0.008875992093324922</v>
       </c>
       <c r="X2" t="n">
-        <v>0.006611102758177046</v>
+        <v>0.005473826676880565</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.006780323333846141</v>
+        <v>0.005070745323290866</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.001968459375714063</v>
+        <v>0.002627617513455886</v>
       </c>
       <c r="AA2" t="n">
-        <v>3.838890596677367e-05</v>
+        <v>0.00143363264369446</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.308547843798132e-06</v>
+        <v>0.0006636742765877857</v>
       </c>
       <c r="AC2" t="n">
-        <v>5.579784939708981e-08</v>
+        <v>0.0004619444883477854</v>
       </c>
     </row>
     <row r="3">
@@ -2107,88 +2107,88 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1494582022075891</v>
+        <v>0.1328989362754719</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1447320723155272</v>
+        <v>0.1281568600925774</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1458694504060308</v>
+        <v>0.1196790919244353</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1107117208955143</v>
+        <v>0.1111007802384954</v>
       </c>
       <c r="F3" t="n">
-        <v>0.133991976414467</v>
+        <v>0.1053947310424115</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1056350501270045</v>
+        <v>0.1937364210925273</v>
       </c>
       <c r="H3" t="n">
-        <v>0.07361513897359799</v>
+        <v>0.2204106509897422</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04236247642864836</v>
+        <v>0.2172721876532644</v>
       </c>
       <c r="J3" t="n">
-        <v>0.01367165779284446</v>
+        <v>0.2448393074525183</v>
       </c>
       <c r="K3" t="n">
-        <v>0.009954310822320697</v>
+        <v>0.2664039212839965</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01768660189590381</v>
+        <v>0.3532248788412038</v>
       </c>
       <c r="M3" t="n">
-        <v>0.004841630591515453</v>
+        <v>0.3033962435851525</v>
       </c>
       <c r="N3" t="n">
-        <v>0.001288822765810112</v>
+        <v>0.162945977096533</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0004858192905906122</v>
+        <v>0.07116694426240514</v>
       </c>
       <c r="P3" t="n">
-        <v>0.0002030124020046721</v>
+        <v>0.02862926537803123</v>
       </c>
       <c r="Q3" t="n">
-        <v>4.105077405873133e-05</v>
+        <v>0.05174117551802101</v>
       </c>
       <c r="R3" t="n">
-        <v>2.118272351603953e-05</v>
+        <v>0.03451755195885126</v>
       </c>
       <c r="S3" t="n">
-        <v>3.06805584042228e-06</v>
+        <v>0.0232630040053828</v>
       </c>
       <c r="T3" t="n">
-        <v>1.738086869299396e-05</v>
+        <v>0.0104239280890095</v>
       </c>
       <c r="U3" t="n">
-        <v>3.1129251698513e-06</v>
+        <v>0.003342800460510404</v>
       </c>
       <c r="V3" t="n">
-        <v>6.041584631689038e-07</v>
+        <v>0.001052304085513313</v>
       </c>
       <c r="W3" t="n">
-        <v>1.827032624583539e-07</v>
+        <v>0.0002885521748968022</v>
       </c>
       <c r="X3" t="n">
-        <v>7.327706854055459e-08</v>
+        <v>0.0001289481119056728</v>
       </c>
       <c r="Y3" t="n">
-        <v>6.005317701740324e-09</v>
+        <v>0.0001028072396490507</v>
       </c>
       <c r="Z3" t="n">
-        <v>3.762739369005867e-11</v>
+        <v>3.676258270416967e-05</v>
       </c>
       <c r="AA3" t="n">
-        <v>8.754417311996241e-13</v>
+        <v>1.50925266762994e-05</v>
       </c>
       <c r="AB3" t="n">
-        <v>2.328500756915688e-14</v>
+        <v>5.34646739902197e-06</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.722267775264328e-16</v>
+        <v>3.26763004538749e-06</v>
       </c>
     </row>
     <row r="4">
@@ -2198,88 +2198,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1494582126047027</v>
+        <v>0.1328989211886293</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1447320754519901</v>
+        <v>0.1281568379002617</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1458694531974659</v>
+        <v>0.1196790604021985</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1107121349717645</v>
+        <v>0.1111007415037751</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1339920744099585</v>
+        <v>0.1053946878191452</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1056354808405338</v>
+        <v>0.1937357328198898</v>
       </c>
       <c r="H4" t="n">
-        <v>0.07361583017087418</v>
+        <v>0.2204092527079896</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04236309524175949</v>
+        <v>0.2172709058534298</v>
       </c>
       <c r="J4" t="n">
-        <v>0.05192544161579165</v>
+        <v>0.2448370739024093</v>
       </c>
       <c r="K4" t="n">
-        <v>0.05117181689374376</v>
+        <v>0.2664006595211035</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04441781389229955</v>
+        <v>0.2158547055419911</v>
       </c>
       <c r="M4" t="n">
-        <v>0.05317348782848464</v>
+        <v>0.2464213811553248</v>
       </c>
       <c r="N4" t="n">
-        <v>0.06208116919835844</v>
+        <v>0.3115049995300768</v>
       </c>
       <c r="O4" t="n">
-        <v>0.06269760318893891</v>
+        <v>0.4205998832926729</v>
       </c>
       <c r="P4" t="n">
-        <v>0.06065105320670039</v>
+        <v>0.5119318425365619</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.06400237096944519</v>
+        <v>0.4775204774005911</v>
       </c>
       <c r="R4" t="n">
-        <v>0.06099243215831739</v>
+        <v>0.5055354564070121</v>
       </c>
       <c r="S4" t="n">
-        <v>0.05188087695528747</v>
+        <v>0.4625867273649345</v>
       </c>
       <c r="T4" t="n">
-        <v>0.04492719465056711</v>
+        <v>0.5146124724085134</v>
       </c>
       <c r="U4" t="n">
-        <v>0.04583807937171913</v>
+        <v>0.5735138481951373</v>
       </c>
       <c r="V4" t="n">
-        <v>0.03537282858410293</v>
+        <v>0.6621439596783458</v>
       </c>
       <c r="W4" t="n">
-        <v>0.04530788286519032</v>
+        <v>0.7440009078680184</v>
       </c>
       <c r="X4" t="n">
-        <v>0.05521303241326567</v>
+        <v>0.7815676168057495</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.0520401839248749</v>
+        <v>0.7841435393459365</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.04918162325258955</v>
+        <v>0.8214903939497485</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.05323474973409311</v>
+        <v>0.8330398628963538</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.04573707291095222</v>
+        <v>0.8451876878712117</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.01025688636576148</v>
+        <v>0.8495872115842759</v>
       </c>
     </row>
     <row r="5">
@@ -2289,88 +2289,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1494621265988084</v>
+        <v>0.1328932418461484</v>
       </c>
       <c r="C5" t="n">
-        <v>0.144733256191022</v>
+        <v>0.1281484837890463</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1458705038595461</v>
+        <v>0.1196671944272493</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1107057295732584</v>
+        <v>0.1110861608768961</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1339913711356868</v>
+        <v>0.1053784178190689</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1056287464455383</v>
+        <v>0.1937164668294519</v>
       </c>
       <c r="H5" t="n">
-        <v>0.07360430048767179</v>
+        <v>0.220398090648265</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0423525960348047</v>
+        <v>0.2172582142388384</v>
       </c>
       <c r="J5" t="n">
-        <v>0.04517932057208249</v>
+        <v>0.2448365690533931</v>
       </c>
       <c r="K5" t="n">
-        <v>0.05045595172186966</v>
+        <v>0.2664146490374799</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05581214620827731</v>
+        <v>0.2450039022139903</v>
       </c>
       <c r="M5" t="n">
-        <v>0.05545222028775926</v>
+        <v>0.2556329306704102</v>
       </c>
       <c r="N5" t="n">
-        <v>0.03730279152260702</v>
+        <v>0.3135955350326486</v>
       </c>
       <c r="O5" t="n">
-        <v>0.02722830658636551</v>
+        <v>0.2749830846596773</v>
       </c>
       <c r="P5" t="n">
-        <v>0.01902938634745415</v>
+        <v>0.2042484673351483</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.01612709945344067</v>
+        <v>0.2268934256388027</v>
       </c>
       <c r="R5" t="n">
-        <v>0.01201915068653992</v>
+        <v>0.2055705627550345</v>
       </c>
       <c r="S5" t="n">
-        <v>0.004501505858403627</v>
+        <v>0.2816789943366641</v>
       </c>
       <c r="T5" t="n">
-        <v>0.007156488441772108</v>
+        <v>0.227409443343378</v>
       </c>
       <c r="U5" t="n">
-        <v>0.004402127925981169</v>
+        <v>0.1598876297838461</v>
       </c>
       <c r="V5" t="n">
-        <v>0.005598896972215288</v>
+        <v>0.09676773107161184</v>
       </c>
       <c r="W5" t="n">
-        <v>0.003254501144739947</v>
+        <v>0.04916974681538176</v>
       </c>
       <c r="X5" t="n">
-        <v>0.002092538233076092</v>
+        <v>0.03207743257721063</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.003782888685628927</v>
+        <v>0.03028476374562926</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.003642531184801962</v>
+        <v>0.01686778465500618</v>
       </c>
       <c r="AA5" t="n">
-        <v>6.440390720462281e-05</v>
+        <v>0.009864966753539229</v>
       </c>
       <c r="AB5" t="n">
-        <v>2.387375394749277e-06</v>
+        <v>0.004906816696637038</v>
       </c>
       <c r="AC5" t="n">
-        <v>1.117425087389461e-07</v>
+        <v>0.003537429210699542</v>
       </c>
     </row>
     <row r="6">
@@ -2380,88 +2380,88 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1330303548434384</v>
+        <v>0.1577999087785315</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1401303903411292</v>
+        <v>0.1648685338106094</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1376608121339371</v>
+        <v>0.1788778450978917</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1696687949967374</v>
+        <v>0.19410140468562</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1487310756984522</v>
+        <v>0.2043649498778151</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1742965952802052</v>
+        <v>0.1099366456976102</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2016837405135641</v>
+        <v>0.08658807286814514</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2369988972663875</v>
+        <v>0.0891998628584548</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2914189517355474</v>
+        <v>0.06587994027922853</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2818667803164652</v>
+        <v>0.0483285620528166</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2382817734984038</v>
+        <v>0.03864782864463555</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2853259189413597</v>
+        <v>0.04457650459636604</v>
       </c>
       <c r="N6" t="n">
-        <v>0.3530263641248356</v>
+        <v>0.05531128277177131</v>
       </c>
       <c r="O6" t="n">
-        <v>0.3903384760220867</v>
+        <v>0.07833120819285595</v>
       </c>
       <c r="P6" t="n">
-        <v>0.4208340547453956</v>
+        <v>0.101675324120099</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.4276379395907454</v>
+        <v>0.09059996284961647</v>
       </c>
       <c r="R6" t="n">
-        <v>0.4440195601721468</v>
+        <v>0.1005264377308125</v>
       </c>
       <c r="S6" t="n">
-        <v>0.4778337868206095</v>
+        <v>0.08081011069015859</v>
       </c>
       <c r="T6" t="n">
-        <v>0.500323831007257</v>
+        <v>0.09683722767232282</v>
       </c>
       <c r="U6" t="n">
-        <v>0.5013890763232939</v>
+        <v>0.113571425773634</v>
       </c>
       <c r="V6" t="n">
-        <v>0.5596339469814103</v>
+        <v>0.1008295595058844</v>
       </c>
       <c r="W6" t="n">
-        <v>0.5110674960688282</v>
+        <v>0.07950411259333906</v>
       </c>
       <c r="X6" t="n">
-        <v>0.4663039786014028</v>
+        <v>0.0668656698297533</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.4596004960774496</v>
+        <v>0.06641425851278532</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.4555808911217583</v>
+        <v>0.05198073062069627</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.4715843826638276</v>
+        <v>0.05145806080767876</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.4726106483307015</v>
+        <v>0.05020476618450295</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.3946885406439785</v>
+        <v>0.04962491354212577</v>
       </c>
     </row>
     <row r="7">
@@ -2471,88 +2471,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1444733966196949</v>
+        <v>0.1402797821612593</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1432579453346183</v>
+        <v>0.1390670675452502</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1442306230643186</v>
+        <v>0.1357197376375866</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1658535305638911</v>
+        <v>0.1314824176888961</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1513091416622801</v>
+        <v>0.1285492954651259</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1689782686245591</v>
+        <v>0.0908543255977334</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1902971903281509</v>
+        <v>0.07532498891576739</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2034320929787498</v>
+        <v>0.07725990139661808</v>
       </c>
       <c r="J7" t="n">
-        <v>0.09662385512549622</v>
+        <v>0.06056732091724263</v>
       </c>
       <c r="K7" t="n">
-        <v>0.09034350167519276</v>
+        <v>0.04696297133966312</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1473735599985951</v>
+        <v>0.05620170293935691</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0569601115529098</v>
+        <v>0.05060713681591287</v>
       </c>
       <c r="N7" t="n">
-        <v>0.01808660880613034</v>
+        <v>0.03366990656358505</v>
       </c>
       <c r="O7" t="n">
-        <v>0.007543065477463961</v>
+        <v>0.0168572008489352</v>
       </c>
       <c r="P7" t="n">
-        <v>0.003385511917971252</v>
+        <v>0.007573455624338055</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0008468565915922574</v>
+        <v>0.01251105492499911</v>
       </c>
       <c r="R7" t="n">
-        <v>0.0004593624991880667</v>
+        <v>0.008753839861915767</v>
       </c>
       <c r="S7" t="n">
-        <v>7.353042067587597e-05</v>
+        <v>0.00745013120623849</v>
       </c>
       <c r="T7" t="n">
-        <v>0.0003862528200299714</v>
+        <v>0.003621205936746377</v>
       </c>
       <c r="U7" t="n">
-        <v>7.700791407876444e-05</v>
+        <v>0.001279237095098046</v>
       </c>
       <c r="V7" t="n">
-        <v>1.753913195999129e-05</v>
+        <v>0.0004281489847623137</v>
       </c>
       <c r="W7" t="n">
-        <v>5.603370558847316e-06</v>
+        <v>0.0001238510432843674</v>
       </c>
       <c r="X7" t="n">
-        <v>2.335835152041706e-06</v>
+        <v>5.727720910408297e-05</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.048516644350232e-07</v>
+        <v>4.651655668289932e-05</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.172522378172109e-09</v>
+        <v>1.723982069831871e-05</v>
       </c>
       <c r="AA7" t="n">
-        <v>2.713082782174585e-11</v>
+        <v>7.253248831557021e-06</v>
       </c>
       <c r="AB7" t="n">
-        <v>7.340675699597189e-13</v>
+        <v>2.625425695023522e-06</v>
       </c>
       <c r="AC7" t="n">
-        <v>2.473943278928618e-14</v>
+        <v>1.621316252955783e-06</v>
       </c>
     </row>
     <row r="8">
@@ -2562,88 +2562,88 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1334078961791233</v>
+        <v>0.1572244057693179</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1402271317457753</v>
+        <v>0.1640390894557004</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1379522385909144</v>
+        <v>0.1773468489950802</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1696507116581536</v>
+        <v>0.1916465197552301</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1489026009971953</v>
+        <v>0.2012696006770825</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1742426183134274</v>
+        <v>0.1092583009468841</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2015318598325626</v>
+        <v>0.08619465869368068</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2361470825667809</v>
+        <v>0.08878329955629487</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2903254002409263</v>
+        <v>0.06569747509081884</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2811920994888931</v>
+        <v>0.04828042458859737</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2381610054302228</v>
+        <v>0.0386454806134517</v>
       </c>
       <c r="M8" t="n">
-        <v>0.285211500888009</v>
+        <v>0.04454087998398993</v>
       </c>
       <c r="N8" t="n">
-        <v>0.3514443437946034</v>
+        <v>0.05534789585786343</v>
       </c>
       <c r="O8" t="n">
-        <v>0.3835929404852586</v>
+        <v>0.07811881550472799</v>
       </c>
       <c r="P8" t="n">
-        <v>0.406927821182423</v>
+        <v>0.1009301959052843</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.4167656067992375</v>
+        <v>0.09052418948924613</v>
       </c>
       <c r="R8" t="n">
-        <v>0.4271655725608148</v>
+        <v>0.0997548876158198</v>
       </c>
       <c r="S8" t="n">
-        <v>0.4453006731925582</v>
+        <v>0.08169793090755657</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4097783346604144</v>
+        <v>0.09698139743680415</v>
       </c>
       <c r="U8" t="n">
-        <v>0.4289100180657217</v>
+        <v>0.113540789106603</v>
       </c>
       <c r="V8" t="n">
-        <v>0.3782431751944603</v>
+        <v>0.119553664593861</v>
       </c>
       <c r="W8" t="n">
-        <v>0.4292725803616828</v>
+        <v>0.1180368374117547</v>
       </c>
       <c r="X8" t="n">
-        <v>0.4697769388818578</v>
+        <v>0.1138292287893963</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.4777958971212182</v>
+        <v>0.113937369276026</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.4896264938549862</v>
+        <v>0.1069794708576904</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.4750780747609016</v>
+        <v>0.1041811311232257</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.4816485828343502</v>
+        <v>0.09902908307796668</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.5950544054498764</v>
+        <v>0.09678361222825267</v>
       </c>
     </row>
   </sheetData>
@@ -2758,88 +2758,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1452105117012723</v>
+        <v>0.1417786883349592</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1476487596793334</v>
+        <v>0.1399297834367953</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1479850147313629</v>
+        <v>0.1420655882346736</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1543903060046675</v>
+        <v>0.1449210608515381</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1705718393131661</v>
+        <v>0.1461887551453217</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1762593784128916</v>
+        <v>0.125819114368107</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1976142660557887</v>
+        <v>0.14016778985165</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2060536993368474</v>
+        <v>0.1582994982343238</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2303987981647506</v>
+        <v>0.1402262132153223</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2501599378199307</v>
+        <v>0.1694668389730788</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2673420577118384</v>
+        <v>0.1559431788492049</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2959937194895984</v>
+        <v>0.1444276990317956</v>
       </c>
       <c r="N2" t="n">
-        <v>0.3542138953636152</v>
+        <v>0.1149962274593096</v>
       </c>
       <c r="O2" t="n">
-        <v>0.3334170547637829</v>
+        <v>0.1256897672314627</v>
       </c>
       <c r="P2" t="n">
-        <v>0.4104271656628726</v>
+        <v>0.176466999933988</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.285523729103549</v>
+        <v>0.1012287112757604</v>
       </c>
       <c r="R2" t="n">
-        <v>0.2949790491691515</v>
+        <v>0.1365427553262027</v>
       </c>
       <c r="S2" t="n">
-        <v>0.3912831322200734</v>
+        <v>0.1581373193223172</v>
       </c>
       <c r="T2" t="n">
-        <v>0.4009740531954644</v>
+        <v>0.1127698472815137</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2719338870727076</v>
+        <v>0.07958020864913588</v>
       </c>
       <c r="V2" t="n">
-        <v>0.1707437417623822</v>
+        <v>0.05916866319803355</v>
       </c>
       <c r="W2" t="n">
-        <v>0.3445831081909629</v>
+        <v>0.05167344672287473</v>
       </c>
       <c r="X2" t="n">
-        <v>0.6745873377021034</v>
+        <v>0.1163304762597231</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.7176097453981513</v>
+        <v>0.06845065659207031</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.5856248342162013</v>
+        <v>0.05384332982503689</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.6718558583887505</v>
+        <v>0.01509972278396999</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.7590277670673761</v>
+        <v>0.06478714398272452</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.5418947436696514</v>
+        <v>0.312647626570881</v>
       </c>
     </row>
     <row r="3">
@@ -2849,88 +2849,88 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1354338344374321</v>
+        <v>0.1463566979623601</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1263872813402847</v>
+        <v>0.1519264083024843</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1280955777636775</v>
+        <v>0.1452697849734737</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1218829206407799</v>
+        <v>0.1351511083116289</v>
       </c>
       <c r="F3" t="n">
-        <v>0.08901153603926874</v>
+        <v>0.1285345169455328</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09108821780509577</v>
+        <v>0.1704031616754747</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05797008498362622</v>
+        <v>0.1466761459102836</v>
       </c>
       <c r="I3" t="n">
-        <v>0.06705431997108292</v>
+        <v>0.1128043674804462</v>
       </c>
       <c r="J3" t="n">
-        <v>0.03572926300299515</v>
+        <v>0.1446146560321189</v>
       </c>
       <c r="K3" t="n">
-        <v>0.03028429673100372</v>
+        <v>0.08884387944868229</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01472079968293049</v>
+        <v>0.03022841806144969</v>
       </c>
       <c r="M3" t="n">
-        <v>0.009672246429623318</v>
+        <v>0.01842724910822893</v>
       </c>
       <c r="N3" t="n">
-        <v>0.008430574669667068</v>
+        <v>0.008245895341830813</v>
       </c>
       <c r="O3" t="n">
-        <v>0.003017912700706614</v>
+        <v>0.01211312032371302</v>
       </c>
       <c r="P3" t="n">
-        <v>0.01042742817883924</v>
+        <v>0.01560717433394374</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.001986192750604343</v>
+        <v>0.003679429574232999</v>
       </c>
       <c r="R3" t="n">
-        <v>0.0005258254796635894</v>
+        <v>0.003000369954133206</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0003776259538188923</v>
+        <v>0.005211691861629133</v>
       </c>
       <c r="T3" t="n">
-        <v>4.752584033581289e-05</v>
+        <v>0.002405836944003193</v>
       </c>
       <c r="U3" t="n">
-        <v>1.455086980140401e-05</v>
+        <v>0.001100276940366968</v>
       </c>
       <c r="V3" t="n">
-        <v>1.011080947508939e-06</v>
+        <v>0.0004253897012211609</v>
       </c>
       <c r="W3" t="n">
-        <v>4.863698651151263e-07</v>
+        <v>5.055403253012606e-05</v>
       </c>
       <c r="X3" t="n">
-        <v>5.85586765749159e-07</v>
+        <v>5.067367266805174e-05</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.899758511733215e-08</v>
+        <v>1.671420282744371e-05</v>
       </c>
       <c r="Z3" t="n">
-        <v>5.640109720617261e-09</v>
+        <v>1.157444216162338e-07</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.50410839974939e-09</v>
+        <v>1.474780035997955e-08</v>
       </c>
       <c r="AB3" t="n">
-        <v>8.211312070526827e-10</v>
+        <v>1.04035232395787e-08</v>
       </c>
       <c r="AC3" t="n">
-        <v>4.450641597641461e-11</v>
+        <v>1.718488675611409e-08</v>
       </c>
     </row>
     <row r="4">
@@ -2940,88 +2940,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1354338230907142</v>
+        <v>0.1463567032835824</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1263872575411925</v>
+        <v>0.1519264224912436</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1280955543706084</v>
+        <v>0.1452697887812379</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1218832933015017</v>
+        <v>0.13515109760548</v>
       </c>
       <c r="F4" t="n">
-        <v>0.08901213819675655</v>
+        <v>0.1285344983339803</v>
       </c>
       <c r="G4" t="n">
-        <v>0.09108906704808553</v>
+        <v>0.1704029299768975</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05797106184469566</v>
+        <v>0.1466762736479866</v>
       </c>
       <c r="I4" t="n">
-        <v>0.06705565880379737</v>
+        <v>0.1128048217635073</v>
       </c>
       <c r="J4" t="n">
-        <v>0.07541100306374186</v>
+        <v>0.1446147030203375</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0748548060483301</v>
+        <v>0.08884439228957942</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0815291157418372</v>
+        <v>0.1169853007849049</v>
       </c>
       <c r="M4" t="n">
-        <v>0.08107959626356553</v>
+        <v>0.1247606188161359</v>
       </c>
       <c r="N4" t="n">
-        <v>0.07188779492220804</v>
+        <v>0.1344356755201525</v>
       </c>
       <c r="O4" t="n">
-        <v>0.08256170573337289</v>
+        <v>0.1309215515641459</v>
       </c>
       <c r="P4" t="n">
-        <v>0.06221759541248094</v>
+        <v>0.1213550365823554</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.08968131637881679</v>
+        <v>0.1315632945186156</v>
       </c>
       <c r="R4" t="n">
-        <v>0.09657264111589173</v>
+        <v>0.1352511832431155</v>
       </c>
       <c r="S4" t="n">
-        <v>0.09299497533270221</v>
+        <v>0.1324941604127694</v>
       </c>
       <c r="T4" t="n">
-        <v>0.08123610502348509</v>
+        <v>0.1333942892755509</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1270874539465476</v>
+        <v>0.1302865031907302</v>
       </c>
       <c r="V4" t="n">
-        <v>0.1371961675064408</v>
+        <v>0.1371616756681417</v>
       </c>
       <c r="W4" t="n">
-        <v>0.05949957570688394</v>
+        <v>0.1263879516787244</v>
       </c>
       <c r="X4" t="n">
-        <v>0.003343410735640066</v>
+        <v>0.08491879176147672</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.0003684499078992971</v>
+        <v>0.1077458604262229</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.0001336058541196488</v>
+        <v>0.0940771787638639</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.036992710994839e-05</v>
+        <v>0.0953157945678893</v>
       </c>
       <c r="AB4" t="n">
-        <v>5.678305901527479e-07</v>
+        <v>0.0800842343162539</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.092200535579799e-08</v>
+        <v>0.03865603149903261</v>
       </c>
     </row>
     <row r="5">
@@ -3031,88 +3031,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1354295516726802</v>
+        <v>0.1463587064386327</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1263782986312401</v>
+        <v>0.1519317638377456</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1280867481485101</v>
+        <v>0.1452712222133749</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1218680086877643</v>
+        <v>0.1351470674219816</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08899520663137504</v>
+        <v>0.1285274923775868</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09106766620566709</v>
+        <v>0.1703972603937156</v>
       </c>
       <c r="H5" t="n">
-        <v>0.05794981375074282</v>
+        <v>0.1466656732327653</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06702742939042601</v>
+        <v>0.1127904446044034</v>
       </c>
       <c r="J5" t="n">
-        <v>0.07477489977730815</v>
+        <v>0.1446056322549218</v>
       </c>
       <c r="K5" t="n">
-        <v>0.08122211660873593</v>
+        <v>0.08883035858091821</v>
       </c>
       <c r="L5" t="n">
-        <v>0.08649399485743867</v>
+        <v>0.08081928581900019</v>
       </c>
       <c r="M5" t="n">
-        <v>0.09570299765015509</v>
+        <v>0.07452429263965896</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1150320658361611</v>
+        <v>0.05887309090925336</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1090140455545101</v>
+        <v>0.0645564287193902</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1327141756674276</v>
+        <v>0.09120913692613572</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.09378065237948753</v>
+        <v>0.05300811757235464</v>
       </c>
       <c r="R5" t="n">
-        <v>0.09756181406863094</v>
+        <v>0.07133931594245721</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1294903092233222</v>
+        <v>0.08231314978588068</v>
       </c>
       <c r="T5" t="n">
-        <v>0.142562324892749</v>
+        <v>0.0590562869789466</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1090899621819271</v>
+        <v>0.04192120193680912</v>
       </c>
       <c r="V5" t="n">
-        <v>0.08982261431646842</v>
+        <v>0.03385629698429263</v>
       </c>
       <c r="W5" t="n">
-        <v>0.1731923349657365</v>
+        <v>0.03420148679760499</v>
       </c>
       <c r="X5" t="n">
-        <v>0.2578214355517826</v>
+        <v>0.07171316507956615</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.2743308839802882</v>
+        <v>0.04679951706620715</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.411130354263369</v>
+        <v>0.047249697966536</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.3278733666702354</v>
+        <v>0.01774819728950101</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.2409559773690352</v>
+        <v>0.07902898018745391</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.4581048983456374</v>
+        <v>0.2536206867632118</v>
       </c>
     </row>
     <row r="6">
@@ -3122,88 +3122,88 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1539837235054982</v>
+        <v>0.1375827333766702</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1680079572148882</v>
+        <v>0.1293298861646685</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1645365968345917</v>
+        <v>0.1392719324153145</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1677139553627447</v>
+        <v>0.154808472626422</v>
       </c>
       <c r="F6" t="n">
-        <v>0.200993004749078</v>
+        <v>0.1655948664354039</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1925681904046573</v>
+        <v>0.1229788655483409</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2212335575088011</v>
+        <v>0.1445117006328582</v>
       </c>
       <c r="I6" t="n">
-        <v>0.200044393722487</v>
+        <v>0.1774491223417914</v>
       </c>
       <c r="J6" t="n">
-        <v>0.223238833003478</v>
+        <v>0.1474890399409121</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2170886323964141</v>
+        <v>0.2022530831014418</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2337987597800526</v>
+        <v>0.2751412200375162</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2257532476732658</v>
+        <v>0.2973213539819098</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1903603557744447</v>
+        <v>0.3321875058724234</v>
       </c>
       <c r="O6" t="n">
-        <v>0.2202671113679459</v>
+        <v>0.3193430792335242</v>
       </c>
       <c r="P6" t="n">
-        <v>0.1460983828447165</v>
+        <v>0.2760017916633816</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.254258547610598</v>
+        <v>0.3548211522866653</v>
       </c>
       <c r="R6" t="n">
-        <v>0.2494504528433599</v>
+        <v>0.3234849274703924</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1841629938364373</v>
+        <v>0.3029534745201198</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1912755388410932</v>
+        <v>0.3462570323094799</v>
       </c>
       <c r="U6" t="n">
-        <v>0.2297044839643934</v>
+        <v>0.3795226723715833</v>
       </c>
       <c r="V6" t="n">
-        <v>0.2937751036215095</v>
+        <v>0.3852857809408004</v>
       </c>
       <c r="W6" t="n">
-        <v>0.2534561524584261</v>
+        <v>0.4135568130732148</v>
       </c>
       <c r="X6" t="n">
-        <v>0.05021156441205341</v>
+        <v>0.4362977252689921</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.005942019947869664</v>
+        <v>0.4348509366064849</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.002367898642014109</v>
+        <v>0.4783477884890493</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.0001959476261400229</v>
+        <v>0.5108374175573259</v>
       </c>
       <c r="AB6" t="n">
-        <v>1.157327848243205e-05</v>
+        <v>0.4487693864735029</v>
       </c>
       <c r="AC6" t="n">
-        <v>2.479241250077419e-07</v>
+        <v>0.2256567282548066</v>
       </c>
     </row>
     <row r="7">
@@ -3213,88 +3213,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1409549928501424</v>
+        <v>0.1437733166094243</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1382091141665078</v>
+        <v>0.1451038217057324</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1394233441669667</v>
+        <v>0.1434432233621578</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1451885705322234</v>
+        <v>0.1405276166839924</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1616670442451332</v>
+        <v>0.1380789737707792</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1660496746708562</v>
+        <v>0.1172476151337107</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1868739649028173</v>
+        <v>0.131285505727011</v>
       </c>
       <c r="I7" t="n">
-        <v>0.192539981324963</v>
+        <v>0.1494493746961162</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1368725832525374</v>
+        <v>0.1315625232965951</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1286380572993615</v>
+        <v>0.1610323644293114</v>
       </c>
       <c r="L7" t="n">
-        <v>0.08139198290970358</v>
+        <v>0.06843415245339649</v>
       </c>
       <c r="M7" t="n">
-        <v>0.06464520058917059</v>
+        <v>0.04639774845563823</v>
       </c>
       <c r="N7" t="n">
-        <v>0.06782596461779122</v>
+        <v>0.02348086944945861</v>
       </c>
       <c r="O7" t="n">
-        <v>0.02919149050305163</v>
+        <v>0.03197729320064125</v>
       </c>
       <c r="P7" t="n">
-        <v>0.08780499529242462</v>
+        <v>0.04535993417964043</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.01996909532222541</v>
+        <v>0.01176771075361413</v>
       </c>
       <c r="R7" t="n">
-        <v>0.006868692926094307</v>
+        <v>0.01111215002813516</v>
       </c>
       <c r="S7" t="n">
-        <v>0.005630793568139986</v>
+        <v>0.01794475892612469</v>
       </c>
       <c r="T7" t="n">
-        <v>0.001029339856650583</v>
+        <v>0.008761668811443067</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0003451184879475944</v>
+        <v>0.004241896181853186</v>
       </c>
       <c r="V7" t="n">
-        <v>2.999150413601217e-05</v>
+        <v>0.001778099539415112</v>
       </c>
       <c r="W7" t="n">
-        <v>1.820852405483771e-05</v>
+        <v>0.0002550968103948252</v>
       </c>
       <c r="X7" t="n">
-        <v>2.536193327149115e-05</v>
+        <v>0.0002928231391581297</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.731017408355466e-06</v>
+        <v>0.0001023976217722829</v>
       </c>
       <c r="Z7" t="n">
-        <v>3.47583515837239e-07</v>
+        <v>1.092950765921252e-06</v>
       </c>
       <c r="AA7" t="n">
-        <v>1.377108988203728e-07</v>
+        <v>1.465257362061173e-07</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.080116383617245e-07</v>
+        <v>1.154293510409758e-07</v>
       </c>
       <c r="AC7" t="n">
-        <v>6.469644893229433e-09</v>
+        <v>2.208233462262059e-07</v>
       </c>
     </row>
     <row r="8">
@@ -3304,88 +3304,88 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1535535627422605</v>
+        <v>0.1377931539943711</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1669813314265534</v>
+        <v>0.1298519140613301</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1637771639842827</v>
+        <v>0.1394084600197675</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1670729454703184</v>
+        <v>0.1542935764989569</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1997492308252223</v>
+        <v>0.1645408969913954</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1918778054527464</v>
+        <v>0.1227510529037537</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2203872509535282</v>
+        <v>0.1440169109974452</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2002245174503963</v>
+        <v>0.1764023708794118</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2235746197351888</v>
+        <v>0.1468872322397922</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2177521530962238</v>
+        <v>0.2007290831769881</v>
       </c>
       <c r="L8" t="n">
-        <v>0.234723289316199</v>
+        <v>0.2724484439945276</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2271529919046213</v>
+        <v>0.2941410379666324</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1922493488161128</v>
+        <v>0.3277807354475717</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2225306793766298</v>
+        <v>0.3153987597271226</v>
       </c>
       <c r="P8" t="n">
-        <v>0.1503102569412384</v>
+        <v>0.2739999263805552</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.254800466454719</v>
+        <v>0.3439315840187569</v>
       </c>
       <c r="R8" t="n">
-        <v>0.2540415243972082</v>
+        <v>0.3192692980355639</v>
       </c>
       <c r="S8" t="n">
-        <v>0.196060169865506</v>
+        <v>0.300945445171159</v>
       </c>
       <c r="T8" t="n">
-        <v>0.1828751123502219</v>
+        <v>0.3373550383990627</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2618245434766753</v>
+        <v>0.3633472407295213</v>
       </c>
       <c r="V8" t="n">
-        <v>0.3084313702081156</v>
+        <v>0.3823240939680955</v>
       </c>
       <c r="W8" t="n">
-        <v>0.1692501337840704</v>
+        <v>0.3738746508846561</v>
       </c>
       <c r="X8" t="n">
-        <v>0.01401030407838347</v>
+        <v>0.2903963448184156</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.001744080750798126</v>
+        <v>0.342033917484415</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.0007429538006704349</v>
+        <v>0.3264807962603266</v>
       </c>
       <c r="AA8" t="n">
-        <v>6.431817275687161e-05</v>
+        <v>0.360998706527777</v>
       </c>
       <c r="AB8" t="n">
-        <v>4.00562174656771e-06</v>
+        <v>0.3273301292071904</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.262442973174852e-08</v>
+        <v>0.1694186889038351</v>
       </c>
     </row>
   </sheetData>
@@ -3500,88 +3500,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1450258706616232</v>
+        <v>0.1408653933721582</v>
       </c>
       <c r="C2" t="n">
-        <v>0.146040531134624</v>
+        <v>0.1396673762664261</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1438562760018361</v>
+        <v>0.1413541680617732</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1270002009068073</v>
+        <v>0.1398001685603737</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09691061945962282</v>
+        <v>0.1374151687145902</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1456900483792438</v>
+        <v>0.1701827027157369</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1664347256426404</v>
+        <v>0.183410238325535</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1494012316613207</v>
+        <v>0.1997548397017984</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1419997633561439</v>
+        <v>0.2051082183483864</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1638440042978865</v>
+        <v>0.2090995044115439</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1697494299545443</v>
+        <v>0.2444895196290105</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1527426001517633</v>
+        <v>0.1761283368926179</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1859478613445582</v>
+        <v>0.1602148659492759</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2070269196233972</v>
+        <v>0.133770058576597</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1875894664925303</v>
+        <v>0.06373170968581073</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.07679876945916002</v>
+        <v>0.09367869684608483</v>
       </c>
       <c r="R2" t="n">
-        <v>0.04307805407658791</v>
+        <v>0.06143185965604321</v>
       </c>
       <c r="S2" t="n">
-        <v>0.02016358892452515</v>
+        <v>0.04026539809676046</v>
       </c>
       <c r="T2" t="n">
-        <v>0.05680065448243068</v>
+        <v>0.02613549172829498</v>
       </c>
       <c r="U2" t="n">
-        <v>0.02705783736774123</v>
+        <v>0.01496754056553789</v>
       </c>
       <c r="V2" t="n">
-        <v>0.03906744127990511</v>
+        <v>0.01361816050930633</v>
       </c>
       <c r="W2" t="n">
-        <v>0.02372496080238962</v>
+        <v>0.009264440203011245</v>
       </c>
       <c r="X2" t="n">
-        <v>0.01538648071337709</v>
+        <v>0.009744575750911564</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.002134854401395606</v>
+        <v>0.002751001300352561</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.0002333717896176335</v>
+        <v>0.001240753415777212</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.718335313616714e-05</v>
+        <v>0.0006661733591636371</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.284458396246791e-05</v>
+        <v>0.0003260289728162316</v>
       </c>
       <c r="AC2" t="n">
-        <v>2.914861750931328e-07</v>
+        <v>0.0002018929035210436</v>
       </c>
     </row>
     <row r="3">
@@ -3591,88 +3591,88 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1362734764666019</v>
+        <v>0.1493614248068121</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1315029084808448</v>
+        <v>0.1531492650247583</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1420466582871203</v>
+        <v>0.1479727937689028</v>
       </c>
       <c r="E3" t="n">
-        <v>0.169332768785092</v>
+        <v>0.152579236936465</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2145636036337286</v>
+        <v>0.1589483860712538</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1433265698118822</v>
+        <v>0.1101831148994491</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1042604151091854</v>
+        <v>0.07853965174813518</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1365002936164235</v>
+        <v>0.006228186944733011</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2125679430888179</v>
+        <v>0.00863218096731877</v>
       </c>
       <c r="K3" t="n">
-        <v>0.05376591573895758</v>
+        <v>0.004106138316040841</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1023405767947007</v>
+        <v>0.003017259277358448</v>
       </c>
       <c r="M3" t="n">
-        <v>0.04870200260689489</v>
+        <v>3.151919361441443e-05</v>
       </c>
       <c r="N3" t="n">
-        <v>0.03585865284403879</v>
+        <v>6.629063747589239e-06</v>
       </c>
       <c r="O3" t="n">
-        <v>0.009054136715380029</v>
+        <v>4.043574390910716e-06</v>
       </c>
       <c r="P3" t="n">
-        <v>0.00129840549018412</v>
+        <v>4.071865039907934e-07</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0001944635846009097</v>
+        <v>3.879227167266367e-07</v>
       </c>
       <c r="R3" t="n">
-        <v>3.805756499367104e-05</v>
+        <v>1.406518901381124e-07</v>
       </c>
       <c r="S3" t="n">
-        <v>4.420390611970425e-06</v>
+        <v>5.362226077047185e-08</v>
       </c>
       <c r="T3" t="n">
-        <v>3.886903764368224e-05</v>
+        <v>1.730253090694951e-08</v>
       </c>
       <c r="U3" t="n">
-        <v>1.600894106987092e-06</v>
+        <v>5.271445672004635e-09</v>
       </c>
       <c r="V3" t="n">
-        <v>3.348583580656785e-07</v>
+        <v>1.212610493319147e-09</v>
       </c>
       <c r="W3" t="n">
-        <v>1.054258981985032e-07</v>
+        <v>5.315557422802315e-10</v>
       </c>
       <c r="X3" t="n">
-        <v>2.170107427167075e-08</v>
+        <v>1.751295904332024e-10</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.893633263355716e-09</v>
+        <v>2.269706158802915e-11</v>
       </c>
       <c r="Z3" t="n">
-        <v>4.576461187484323e-11</v>
+        <v>6.786123922143514e-12</v>
       </c>
       <c r="AA3" t="n">
-        <v>2.501773612135081e-12</v>
+        <v>2.725768879221119e-12</v>
       </c>
       <c r="AB3" t="n">
-        <v>9.99144655574583e-13</v>
+        <v>9.993841620548437e-13</v>
       </c>
       <c r="AC3" t="n">
-        <v>1.826828723649215e-14</v>
+        <v>5.241408806960255e-13</v>
       </c>
     </row>
     <row r="4">
@@ -3682,88 +3682,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1362734662132917</v>
+        <v>0.1493614346118424</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1315028923184936</v>
+        <v>0.1531492806141878</v>
       </c>
       <c r="D4" t="n">
-        <v>0.142046654863659</v>
+        <v>0.1479728012252914</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1693323292404242</v>
+        <v>0.1525792517903621</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2145623096202057</v>
+        <v>0.1589484119150852</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1433267703276292</v>
+        <v>0.1101837996392709</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1042609313360081</v>
+        <v>0.07854035617170556</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1365006099881313</v>
+        <v>0.006228413655281498</v>
       </c>
       <c r="J4" t="n">
-        <v>0.09505016770122762</v>
+        <v>0.008632472962714055</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1758528056449825</v>
+        <v>0.004106342004701122</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1424685768448751</v>
+        <v>0.004035633412115294</v>
       </c>
       <c r="M4" t="n">
-        <v>0.184581369522205</v>
+        <v>0.005908605717634129</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1736526181026735</v>
+        <v>0.006037813449201733</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1886217756194347</v>
+        <v>0.006092759699443309</v>
       </c>
       <c r="P4" t="n">
-        <v>0.2124720997550633</v>
+        <v>0.006263660514492111</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.2343807466887391</v>
+        <v>0.007095013940258421</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2347435512498079</v>
+        <v>0.006652924226916557</v>
       </c>
       <c r="S4" t="n">
-        <v>0.2335514074406948</v>
+        <v>0.006155551395515639</v>
       </c>
       <c r="T4" t="n">
-        <v>0.188423945211307</v>
+        <v>0.005831657045649288</v>
       </c>
       <c r="U4" t="n">
-        <v>0.18767049590233</v>
+        <v>0.005210743020490789</v>
       </c>
       <c r="V4" t="n">
-        <v>0.1428950856045849</v>
+        <v>0.004386049461392317</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1559950444132161</v>
+        <v>0.004971075207392019</v>
       </c>
       <c r="X4" t="n">
-        <v>0.08659303613921983</v>
+        <v>0.003303270199488639</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.1006615002011619</v>
+        <v>0.004155784616872574</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.0943756553812317</v>
+        <v>0.006489648158248072</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.1247204597555784</v>
+        <v>0.006734473640032203</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.1072155210302263</v>
+        <v>0.007048243551678646</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.09479826498019339</v>
+        <v>0.007296441061631593</v>
       </c>
     </row>
     <row r="5">
@@ -3773,88 +3773,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1362696063918786</v>
+        <v>0.1493651256648997</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1314968081866342</v>
+        <v>0.1531551491754152</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1420453659108127</v>
+        <v>0.1479756081093851</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1693384066053751</v>
+        <v>0.152584843476232</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2145828972732355</v>
+        <v>0.1589581408537521</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1433219027067786</v>
+        <v>0.1101788843214633</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1042509152245718</v>
+        <v>0.07853307031343623</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1364937813109763</v>
+        <v>0.006224849609073767</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1308484033365103</v>
+        <v>0.008627921588350181</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1485791307042837</v>
+        <v>0.004103044725889577</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1550163399117109</v>
+        <v>0.004811175527073073</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1382193467195467</v>
+        <v>0.003373451146893493</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1689568094986641</v>
+        <v>0.003051622144594381</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1886568891077476</v>
+        <v>0.002536347026645845</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1727327859450472</v>
+        <v>0.00117786930495663</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.07199109643722693</v>
+        <v>0.00173021975328846</v>
       </c>
       <c r="R5" t="n">
-        <v>0.04092266761527784</v>
+        <v>0.001142754592345915</v>
       </c>
       <c r="S5" t="n">
-        <v>0.01953027855056</v>
+        <v>0.0007540634335709473</v>
       </c>
       <c r="T5" t="n">
-        <v>0.042797128012783</v>
+        <v>0.0004936031750168591</v>
       </c>
       <c r="U5" t="n">
-        <v>0.02811154159795593</v>
+        <v>0.0002850957854279659</v>
       </c>
       <c r="V5" t="n">
-        <v>0.0441685231837536</v>
+        <v>0.0002998371235690628</v>
       </c>
       <c r="W5" t="n">
-        <v>0.02987230630346731</v>
+        <v>0.0002184321942088466</v>
       </c>
       <c r="X5" t="n">
-        <v>0.02435500993261529</v>
+        <v>0.0002702009993985377</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.003899951497658584</v>
+        <v>9.19596803895203e-05</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.001496128721380589</v>
+        <v>4.538218903824713e-05</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.0001213434996196283</v>
+        <v>2.61777014370104e-05</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.0001205899737625989</v>
+        <v>1.3822718345956e-05</v>
       </c>
       <c r="AC5" t="n">
-        <v>2.96155429809481e-06</v>
+        <v>8.962722070995749e-06</v>
       </c>
     </row>
     <row r="6">
@@ -3864,88 +3864,88 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1526415350565182</v>
+        <v>0.1330376836218596</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1603168548594095</v>
+        <v>0.1273574679807434</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1432815587829532</v>
+        <v>0.1350621904110567</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1194359631868284</v>
+        <v>0.1282625671915066</v>
       </c>
       <c r="F6" t="n">
-        <v>0.08194565174182558</v>
+        <v>0.1191168152855464</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1396482222024511</v>
+        <v>0.1577195611583958</v>
       </c>
       <c r="H6" t="n">
-        <v>0.176999562901228</v>
+        <v>0.1906703912536569</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1461013116202552</v>
+        <v>0.279534882454486</v>
       </c>
       <c r="J6" t="n">
-        <v>0.09826955190262401</v>
+        <v>0.2706480828959938</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1889507307867263</v>
+        <v>0.2730774045235227</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1490052911870695</v>
+        <v>0.2615662655686656</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2020878994235743</v>
+        <v>0.4038556108953362</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1827409781223941</v>
+        <v>0.4146890902957979</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1891820565345147</v>
+        <v>0.4291705826933191</v>
       </c>
       <c r="P6" t="n">
-        <v>0.2087460394986738</v>
+        <v>0.466767398658516</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.31226968813261</v>
+        <v>0.4447491923054453</v>
       </c>
       <c r="R6" t="n">
-        <v>0.3474325310883364</v>
+        <v>0.4650419005317304</v>
       </c>
       <c r="S6" t="n">
-        <v>0.3716240787817109</v>
+        <v>0.4799398115705651</v>
       </c>
       <c r="T6" t="n">
-        <v>0.3989087152990836</v>
+        <v>0.4894415739081496</v>
       </c>
       <c r="U6" t="n">
-        <v>0.4306709281801923</v>
+        <v>0.5001989826664864</v>
       </c>
       <c r="V6" t="n">
-        <v>0.4882594264034453</v>
+        <v>0.538659858219398</v>
       </c>
       <c r="W6" t="n">
-        <v>0.4817088669878647</v>
+        <v>0.5129311957172786</v>
       </c>
       <c r="X6" t="n">
-        <v>0.6194136717293582</v>
+        <v>0.5998099262425302</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.6468324076659623</v>
+        <v>0.527961759761165</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.6463810744352112</v>
+        <v>0.4356373977524455</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.6573753260284144</v>
+        <v>0.4402104033710494</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.6521156386725508</v>
+        <v>0.4457187427992356</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.7311449527180354</v>
+        <v>0.4498385983485512</v>
       </c>
     </row>
     <row r="7">
@@ -3955,88 +3955,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1412397023664597</v>
+        <v>0.1445791496292174</v>
       </c>
       <c r="C7" t="n">
-        <v>0.13955580846871</v>
+        <v>0.1455512315500389</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1433575075666851</v>
+        <v>0.1442824468545706</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1258554205220409</v>
+        <v>0.1453603380757527</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09505147353678806</v>
+        <v>0.1466151194507235</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1447614562000315</v>
+        <v>0.1829245255654465</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1669955159832129</v>
+        <v>0.1992187150861125</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1487072037411701</v>
+        <v>0.2240150847249624</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2226202128272046</v>
+        <v>0.2287152954157349</v>
       </c>
       <c r="K7" t="n">
-        <v>0.07983867794820595</v>
+        <v>0.2332568003297524</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1319550330577188</v>
+        <v>0.2208187111954662</v>
       </c>
       <c r="M7" t="n">
-        <v>0.07162466929353582</v>
+        <v>0.008788327552491322</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0696154306865551</v>
+        <v>0.003428702323826561</v>
       </c>
       <c r="O7" t="n">
-        <v>0.02630935685230556</v>
+        <v>0.002232565291007705</v>
       </c>
       <c r="P7" t="n">
-        <v>0.005254040509904218</v>
+        <v>0.0002764275206479585</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0008611360600315376</v>
+        <v>0.0002933207797171896</v>
       </c>
       <c r="R7" t="n">
-        <v>0.0001931688754652234</v>
+        <v>0.0001158296054031976</v>
       </c>
       <c r="S7" t="n">
-        <v>2.617360933181998e-05</v>
+        <v>4.766553479389093e-05</v>
       </c>
       <c r="T7" t="n">
-        <v>0.0002386364598633774</v>
+        <v>1.694380896940504e-05</v>
       </c>
       <c r="U7" t="n">
-        <v>1.17251305623597e-05</v>
+        <v>5.603600694387812e-06</v>
       </c>
       <c r="V7" t="n">
-        <v>3.031543520300764e-06</v>
+        <v>1.476201620901507e-06</v>
       </c>
       <c r="W7" t="n">
-        <v>1.022930250479607e-06</v>
+        <v>6.802664965313202e-07</v>
       </c>
       <c r="X7" t="n">
-        <v>2.324197731046205e-07</v>
+        <v>2.50601554496836e-07</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.099614145957162e-08</v>
+        <v>3.465346492429906e-08</v>
       </c>
       <c r="Z7" t="n">
-        <v>4.981185869314338e-10</v>
+        <v>1.07526915340026e-08</v>
       </c>
       <c r="AA7" t="n">
-        <v>2.781710420776706e-11</v>
+        <v>4.427580167762411e-09</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.151780629615331e-11</v>
+        <v>1.661966276812777e-09</v>
       </c>
       <c r="AC7" t="n">
-        <v>2.135504545574792e-13</v>
+        <v>8.830661473857338e-10</v>
       </c>
     </row>
     <row r="8">
@@ -4046,88 +4046,88 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1522763428436265</v>
+        <v>0.1334297882932106</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1595841965512838</v>
+        <v>0.1279702293884305</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1433659785869336</v>
+        <v>0.1353799915690202</v>
       </c>
       <c r="E8" t="n">
-        <v>0.119704910753432</v>
+        <v>0.128833593969308</v>
       </c>
       <c r="F8" t="n">
-        <v>0.08238344473459368</v>
+        <v>0.1199979577090487</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1399250303719835</v>
+        <v>0.1586274117002375</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1767979338031535</v>
+        <v>0.1910875771014185</v>
       </c>
       <c r="I8" t="n">
-        <v>0.146295568061723</v>
+        <v>0.278013742909665</v>
       </c>
       <c r="J8" t="n">
-        <v>0.09864395778747173</v>
+        <v>0.2696358278215018</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1891687348789575</v>
+        <v>0.2722507656885494</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1494647522493806</v>
+        <v>0.261261435390311</v>
       </c>
       <c r="M8" t="n">
-        <v>0.20204211228248</v>
+        <v>0.4019141486014126</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1832276494011163</v>
+        <v>0.4125712767735561</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1911488655472203</v>
+        <v>0.4261936431385962</v>
       </c>
       <c r="P8" t="n">
-        <v>0.211907162308597</v>
+        <v>0.4617825271290727</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.3035040996376315</v>
+        <v>0.4524531684524891</v>
       </c>
       <c r="R8" t="n">
-        <v>0.333591969529531</v>
+        <v>0.4656145907356706</v>
       </c>
       <c r="S8" t="n">
-        <v>0.3551000523025653</v>
+        <v>0.4728374563465332</v>
       </c>
       <c r="T8" t="n">
-        <v>0.3127920514968887</v>
+        <v>0.4780807130313891</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3264758709271113</v>
+        <v>0.479332029089917</v>
       </c>
       <c r="V8" t="n">
-        <v>0.2856061571264326</v>
+        <v>0.443034617272103</v>
       </c>
       <c r="W8" t="n">
-        <v>0.3086976931369135</v>
+        <v>0.4726141758800571</v>
       </c>
       <c r="X8" t="n">
-        <v>0.254251547364582</v>
+        <v>0.3868717760309871</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.246471263344047</v>
+        <v>0.4650394599650584</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.2575137691286757</v>
+        <v>0.5565868077250133</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.2177656873329326</v>
+        <v>0.5523627674980117</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.2405354057269808</v>
+        <v>0.5468931602949579</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.1740535292610661</v>
+        <v>0.5426541040806349</v>
       </c>
     </row>
   </sheetData>
@@ -4242,88 +4242,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1453163347879265</v>
+        <v>0.1422103456422789</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1436355215859741</v>
+        <v>0.1445018555901701</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1440021724924303</v>
+        <v>0.147283085503844</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1703562236727303</v>
+        <v>0.1485186778949305</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1769956627377994</v>
+        <v>0.148933088219186</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1783132361229835</v>
+        <v>0.160032014442477</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1846896692186127</v>
+        <v>0.1392269285353095</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1010785903495905</v>
+        <v>0.1233311129129484</v>
       </c>
       <c r="J2" t="n">
-        <v>0.103283981055822</v>
+        <v>0.1006994000169257</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1099382287101648</v>
+        <v>0.1377627812148549</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1216014780961863</v>
+        <v>0.1468857807590763</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0960773925694814</v>
+        <v>0.1724042902700935</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1050558569260161</v>
+        <v>0.1838067326842437</v>
       </c>
       <c r="O2" t="n">
-        <v>0.07326232899426892</v>
+        <v>0.1596895104721504</v>
       </c>
       <c r="P2" t="n">
-        <v>0.03413212144160137</v>
+        <v>0.12633285669007</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.07088383250786699</v>
+        <v>0.2556527488647154</v>
       </c>
       <c r="R2" t="n">
-        <v>0.05068053290169842</v>
+        <v>0.2373057806635444</v>
       </c>
       <c r="S2" t="n">
-        <v>0.01774606301817937</v>
+        <v>0.2032362124282194</v>
       </c>
       <c r="T2" t="n">
-        <v>0.009912642523699266</v>
+        <v>0.2212482557285297</v>
       </c>
       <c r="U2" t="n">
-        <v>0.004795178298736513</v>
+        <v>0.2463864931291429</v>
       </c>
       <c r="V2" t="n">
-        <v>0.002822757211477434</v>
+        <v>0.3094730870607215</v>
       </c>
       <c r="W2" t="n">
-        <v>0.001518295098477755</v>
+        <v>0.3846396876806404</v>
       </c>
       <c r="X2" t="n">
-        <v>0.0006107626025148984</v>
+        <v>0.4103236200401937</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.0001049161501139084</v>
+        <v>0.5252576098094361</v>
       </c>
       <c r="Z2" t="n">
-        <v>4.379907747437649e-05</v>
+        <v>0.5036759344063407</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.068235235620327e-05</v>
+        <v>0.4003091679971978</v>
       </c>
       <c r="AB2" t="n">
-        <v>3.910922792786091e-06</v>
+        <v>0.511054858962132</v>
       </c>
       <c r="AC2" t="n">
-        <v>3.406676630978081e-10</v>
+        <v>0.4071023159228427</v>
       </c>
     </row>
     <row r="3">
@@ -4333,88 +4333,88 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1345467591613349</v>
+        <v>0.1451778888840558</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1422972460538015</v>
+        <v>0.1369784214067336</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1430529658477564</v>
+        <v>0.1273896633981705</v>
       </c>
       <c r="E3" t="n">
-        <v>0.09593307885694254</v>
+        <v>0.1201559725590722</v>
       </c>
       <c r="F3" t="n">
-        <v>0.09449239811627519</v>
+        <v>0.1121289772587693</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09965852856613346</v>
+        <v>0.08493451017151939</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1019427193777727</v>
+        <v>0.1336327687809934</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2287266815921412</v>
+        <v>0.1623491492062643</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2978256631192785</v>
+        <v>0.1993513103087446</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3116744315536386</v>
+        <v>0.1525800227217895</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2913635885447444</v>
+        <v>0.09836438114973252</v>
       </c>
       <c r="M3" t="n">
-        <v>0.393880720764879</v>
+        <v>0.09195919431664892</v>
       </c>
       <c r="N3" t="n">
-        <v>0.3669751216800443</v>
+        <v>0.1562653973521769</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4654243309964532</v>
+        <v>0.2414702330570934</v>
       </c>
       <c r="P3" t="n">
-        <v>0.5984757564863062</v>
+        <v>0.3371143496822725</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.4794235133657553</v>
+        <v>0.05892648500344321</v>
       </c>
       <c r="R3" t="n">
-        <v>0.5173420848013983</v>
+        <v>0.03452507190035797</v>
       </c>
       <c r="S3" t="n">
-        <v>0.5935458943817895</v>
+        <v>0.1751092132031622</v>
       </c>
       <c r="T3" t="n">
-        <v>0.6352295489021765</v>
+        <v>0.09495214991538121</v>
       </c>
       <c r="U3" t="n">
-        <v>0.6422482143577254</v>
+        <v>0.01830238780160953</v>
       </c>
       <c r="V3" t="n">
-        <v>0.6333923797068266</v>
+        <v>0.01419070204668335</v>
       </c>
       <c r="W3" t="n">
-        <v>0.6078912277123072</v>
+        <v>0.01304818152783957</v>
       </c>
       <c r="X3" t="n">
-        <v>0.6163876056681127</v>
+        <v>0.02951967082512273</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.6431039408525696</v>
+        <v>0.02497978546182276</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.6673995244446314</v>
+        <v>0.04607311807045524</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.6424770656670717</v>
+        <v>0.1018576632498066</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.665099107586409</v>
+        <v>0.02272771010575196</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.6872366561633114</v>
+        <v>0.08999303954301022</v>
       </c>
     </row>
     <row r="4">
@@ -4424,88 +4424,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1345467469622835</v>
+        <v>0.1451778921947505</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1422972434449971</v>
+        <v>0.1369784130015572</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1430529626007215</v>
+        <v>0.1273896411579625</v>
       </c>
       <c r="E4" t="n">
-        <v>0.09593358243998371</v>
+        <v>0.1201559423046688</v>
       </c>
       <c r="F4" t="n">
-        <v>0.09449317403347687</v>
+        <v>0.1121289401882896</v>
       </c>
       <c r="G4" t="n">
-        <v>0.09965959527519215</v>
+        <v>0.08493473339691694</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1019442356777742</v>
+        <v>0.1336326898082694</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2287286702715271</v>
+        <v>0.1623485971802958</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1568296729166617</v>
+        <v>0.1993498716735466</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1205014555127748</v>
+        <v>0.1525804629234707</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1001074236268098</v>
+        <v>0.1755743149585782</v>
       </c>
       <c r="M4" t="n">
-        <v>0.04836828165123197</v>
+        <v>0.1605191593091732</v>
       </c>
       <c r="N4" t="n">
-        <v>0.03505434904446762</v>
+        <v>0.1066333931183053</v>
       </c>
       <c r="O4" t="n">
-        <v>0.01954396775127851</v>
+        <v>0.07343801884884922</v>
       </c>
       <c r="P4" t="n">
-        <v>0.006409876545352095</v>
+        <v>0.04553724439830327</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.01536150365390557</v>
+        <v>0.1155465824353515</v>
       </c>
       <c r="R4" t="n">
-        <v>0.00523593355563327</v>
+        <v>0.1435027709966294</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0002156780331946488</v>
+        <v>0.05965417414937053</v>
       </c>
       <c r="T4" t="n">
-        <v>8.680301439093021e-05</v>
+        <v>0.1034909489307886</v>
       </c>
       <c r="U4" t="n">
-        <v>1.706441586060852e-05</v>
+        <v>0.1545970987422996</v>
       </c>
       <c r="V4" t="n">
-        <v>4.098073221989604e-06</v>
+        <v>0.1072709447383426</v>
       </c>
       <c r="W4" t="n">
-        <v>5.433527415873603e-07</v>
+        <v>0.061001925012652</v>
       </c>
       <c r="X4" t="n">
-        <v>7.252658159824389e-08</v>
+        <v>0.0350792108499162</v>
       </c>
       <c r="Y4" t="n">
-        <v>3.369204924990472e-09</v>
+        <v>0.005312449887752057</v>
       </c>
       <c r="Z4" t="n">
-        <v>6.119492542667502e-10</v>
+        <v>0.002116703285592448</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.792554256457619e-11</v>
+        <v>0.0007103881449701675</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.559369507362304e-12</v>
+        <v>0.0002909054974981195</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.030861241760236e-14</v>
+        <v>5.693764062885164e-05</v>
       </c>
     </row>
     <row r="5">
@@ -4515,88 +4515,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1345421547332676</v>
+        <v>0.1451791384707859</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1422962612086789</v>
+        <v>0.1369752489589434</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1430517399362406</v>
+        <v>0.1273812690705915</v>
       </c>
       <c r="E5" t="n">
-        <v>0.09592391983330432</v>
+        <v>0.1201445535878719</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09447876267439705</v>
+        <v>0.1121149860036884</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09964005299537207</v>
+        <v>0.0849197701357749</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1019168125771165</v>
+        <v>0.1336166666732355</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2286918464436752</v>
+        <v>0.1623371045493614</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2357677184544109</v>
+        <v>0.1993490615349438</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2524921484659687</v>
+        <v>0.1525528945888725</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2807170557025131</v>
+        <v>0.1620469195478016</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2245800205838562</v>
+        <v>0.1909313842830621</v>
       </c>
       <c r="N5" t="n">
-        <v>0.24719105875822</v>
+        <v>0.2060603538094957</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1714941948523548</v>
+        <v>0.1802069487530222</v>
       </c>
       <c r="P5" t="n">
-        <v>0.07923080364528681</v>
+        <v>0.1435374393559909</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.165712498783219</v>
+        <v>0.2931787450895075</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1167821982978438</v>
+        <v>0.2736774814850388</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0395542826739372</v>
+        <v>0.2297434956858415</v>
       </c>
       <c r="T5" t="n">
-        <v>0.02082495547508863</v>
+        <v>0.2523917645481622</v>
       </c>
       <c r="U5" t="n">
-        <v>0.008652902944526166</v>
+        <v>0.2855016766234216</v>
       </c>
       <c r="V5" t="n">
-        <v>0.004421795299935923</v>
+        <v>0.3294268467419434</v>
       </c>
       <c r="W5" t="n">
-        <v>0.001878366248975857</v>
+        <v>0.3637217163507753</v>
       </c>
       <c r="X5" t="n">
-        <v>0.0006350767693875618</v>
+        <v>0.3503793776397746</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.165033097460932e-05</v>
+        <v>0.3422962685810743</v>
       </c>
       <c r="Z5" t="n">
-        <v>2.949709160877861e-05</v>
+        <v>0.2867801801128115</v>
       </c>
       <c r="AA5" t="n">
-        <v>4.261021054901423e-06</v>
+        <v>0.1942767242839571</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.264657718956162e-06</v>
+        <v>0.3918252430215517</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.164628792572037e-12</v>
+        <v>0.2365923624449203</v>
       </c>
     </row>
     <row r="6">
@@ -4606,88 +4606,88 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1554993266598535</v>
+        <v>0.1392855312072567</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1430574651343959</v>
+        <v>0.1518977582444147</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1412784764861789</v>
+        <v>0.1665492685542864</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1849805711767571</v>
+        <v>0.1785135446008688</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1807097183373526</v>
+        <v>0.1927619777036518</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1719456369512211</v>
+        <v>0.2230343600521226</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1626257248597463</v>
+        <v>0.1697271637110104</v>
       </c>
       <c r="I6" t="n">
-        <v>0.05764813738889484</v>
+        <v>0.1416178913309281</v>
       </c>
       <c r="J6" t="n">
-        <v>0.03747691731998342</v>
+        <v>0.1073527486888713</v>
       </c>
       <c r="K6" t="n">
-        <v>0.02741706746824175</v>
+        <v>0.1430072856211739</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02181849738286441</v>
+        <v>0.1645674669184922</v>
       </c>
       <c r="M6" t="n">
-        <v>0.00994459580966269</v>
+        <v>0.1445075058575588</v>
       </c>
       <c r="N6" t="n">
-        <v>0.006743491165620005</v>
+        <v>0.09092633304360574</v>
       </c>
       <c r="O6" t="n">
-        <v>0.003549423568862898</v>
+        <v>0.06103669737061518</v>
       </c>
       <c r="P6" t="n">
-        <v>0.001067952440119716</v>
+        <v>0.03682775043045193</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.002438374216601028</v>
+        <v>0.09426398815835314</v>
       </c>
       <c r="R6" t="n">
-        <v>0.000673862768654464</v>
+        <v>0.1286508853813967</v>
       </c>
       <c r="S6" t="n">
-        <v>1.33379499351938e-05</v>
+        <v>0.04704126498433162</v>
       </c>
       <c r="T6" t="n">
-        <v>5.86216640547361e-06</v>
+        <v>0.09380378726441822</v>
       </c>
       <c r="U6" t="n">
-        <v>1.480257919999893e-06</v>
+        <v>0.1307618449671308</v>
       </c>
       <c r="V6" t="n">
-        <v>4.62443119214891e-07</v>
+        <v>0.1088254500999144</v>
       </c>
       <c r="W6" t="n">
-        <v>8.961446455320062e-08</v>
+        <v>0.07793773445705901</v>
       </c>
       <c r="X6" t="n">
-        <v>1.658859925613149e-08</v>
+        <v>0.05354563822439972</v>
       </c>
       <c r="Y6" t="n">
-        <v>7.882178794052137e-10</v>
+        <v>0.01369409042101577</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.460108819861371e-10</v>
+        <v>0.007119287145037631</v>
       </c>
       <c r="AA6" t="n">
-        <v>4.418352707029553e-12</v>
+        <v>0.002434340763340021</v>
       </c>
       <c r="AB6" t="n">
-        <v>4.008723239342462e-13</v>
+        <v>0.001054923962322029</v>
       </c>
       <c r="AC6" t="n">
-        <v>2.508095448584284e-15</v>
+        <v>0.0002127407683949011</v>
       </c>
     </row>
     <row r="7">
@@ -4697,88 +4697,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1405623195656747</v>
+        <v>0.1435324333812696</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1432841067988772</v>
+        <v>0.1411521599769648</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1440586587684976</v>
+        <v>0.1384391545471772</v>
       </c>
       <c r="E7" t="n">
-        <v>0.172133098966902</v>
+        <v>0.1355865383155881</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1779699320244967</v>
+        <v>0.1316322448909671</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1783848902220005</v>
+        <v>0.1424411619687786</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1833423187933108</v>
+        <v>0.1223232621347321</v>
       </c>
       <c r="I7" t="n">
-        <v>0.09638665862251948</v>
+        <v>0.107729563688266</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1304821429543035</v>
+        <v>0.08732596449970535</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1498318939702135</v>
+        <v>0.1193649817776121</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1619240053969581</v>
+        <v>0.08896810052571509</v>
       </c>
       <c r="M7" t="n">
-        <v>0.216865488747147</v>
+        <v>0.09560147881388424</v>
       </c>
       <c r="N7" t="n">
-        <v>0.2319727168276549</v>
+        <v>0.1653006699406187</v>
       </c>
       <c r="O7" t="n">
-        <v>0.2630070139840798</v>
+        <v>0.2229557816931625</v>
       </c>
       <c r="P7" t="n">
-        <v>0.2795508658560669</v>
+        <v>0.2736501718289179</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.2635687716459298</v>
+        <v>0.08774739088481762</v>
       </c>
       <c r="R7" t="n">
-        <v>0.3085417500806155</v>
+        <v>0.05491708115584487</v>
       </c>
       <c r="S7" t="n">
-        <v>0.3489083854488687</v>
+        <v>0.2378330483853345</v>
       </c>
       <c r="T7" t="n">
-        <v>0.3339334125609262</v>
+        <v>0.1414988331143708</v>
       </c>
       <c r="U7" t="n">
-        <v>0.3442837145014906</v>
+        <v>0.03363666411236068</v>
       </c>
       <c r="V7" t="n">
-        <v>0.3593581286864895</v>
+        <v>0.03441047846884622</v>
       </c>
       <c r="W7" t="n">
-        <v>0.3887114212640339</v>
+        <v>0.04051643897043979</v>
       </c>
       <c r="X7" t="n">
-        <v>0.3823664574062382</v>
+        <v>0.08508605415943547</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.3567094881014971</v>
+        <v>0.08212971321845852</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.3325271785518067</v>
+        <v>0.1514777629273144</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.3575079909348038</v>
+        <v>0.2994565441244386</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.3348957168308976</v>
+        <v>0.07261536801673854</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.3127633434888423</v>
+        <v>0.2659538490362835</v>
       </c>
     </row>
     <row r="8">
@@ -4788,88 +4788,88 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1549863581296593</v>
+        <v>0.1394367702196027</v>
       </c>
       <c r="C8" t="n">
-        <v>0.143132155773275</v>
+        <v>0.1515161428212161</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1415030238681746</v>
+        <v>0.1655679177679678</v>
       </c>
       <c r="E8" t="n">
-        <v>0.18473952505338</v>
+        <v>0.1769247707369999</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1808603520762022</v>
+        <v>0.1902997857354478</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1723980598670971</v>
+        <v>0.2197034498324104</v>
       </c>
       <c r="H8" t="n">
-        <v>0.163538519495667</v>
+        <v>0.1678405203564496</v>
       </c>
       <c r="I8" t="n">
-        <v>0.05873941533165191</v>
+        <v>0.1402865811319358</v>
       </c>
       <c r="J8" t="n">
-        <v>0.03833390417953999</v>
+        <v>0.1065716432772626</v>
       </c>
       <c r="K8" t="n">
-        <v>0.02814477431899802</v>
+        <v>0.1421515711522265</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02246795124992394</v>
+        <v>0.1635930361406038</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01028349987374171</v>
+        <v>0.1440769871495792</v>
       </c>
       <c r="N8" t="n">
-        <v>0.007007405597976943</v>
+        <v>0.09100712005155405</v>
       </c>
       <c r="O8" t="n">
-        <v>0.003718739852701922</v>
+        <v>0.06120280980510713</v>
       </c>
       <c r="P8" t="n">
-        <v>0.001132623585266932</v>
+        <v>0.03700018761399335</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.002611505826722573</v>
+        <v>0.09468405956381165</v>
       </c>
       <c r="R8" t="n">
-        <v>0.0007436375941562068</v>
+        <v>0.127420928417188</v>
       </c>
       <c r="S8" t="n">
-        <v>1.6358494095254e-05</v>
+        <v>0.04738259116374039</v>
       </c>
       <c r="T8" t="n">
-        <v>6.775357312916064e-06</v>
+        <v>0.09261426049834909</v>
       </c>
       <c r="U8" t="n">
-        <v>1.44522374084686e-06</v>
+        <v>0.1308138346240349</v>
       </c>
       <c r="V8" t="n">
-        <v>3.785789293147333e-07</v>
+        <v>0.09640249084354835</v>
       </c>
       <c r="W8" t="n">
-        <v>5.670899893622415e-08</v>
+        <v>0.05913431600059381</v>
       </c>
       <c r="X8" t="n">
-        <v>8.438565764649574e-09</v>
+        <v>0.03606642826115765</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.074219443378168e-10</v>
+        <v>0.006330082620440577</v>
       </c>
       <c r="Z8" t="n">
-        <v>7.651860974902604e-11</v>
+        <v>0.002757014052447981</v>
       </c>
       <c r="AA8" t="n">
-        <v>2.369258968706046e-12</v>
+        <v>0.0009551714362896104</v>
       </c>
       <c r="AB8" t="n">
-        <v>2.21309562748832e-13</v>
+        <v>0.0004309904340056683</v>
       </c>
       <c r="AC8" t="n">
-        <v>1.325671255870402e-15</v>
+        <v>8.875464391946335e-05</v>
       </c>
     </row>
   </sheetData>
@@ -4984,88 +4984,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.140353510858965</v>
+        <v>0.1417970138220668</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1390059209646838</v>
+        <v>0.1400156950101457</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1413891883887258</v>
+        <v>0.1389033231244671</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1620187628074012</v>
+        <v>0.1360301935202216</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1729902033194942</v>
+        <v>0.1356741502782599</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1928933996552582</v>
+        <v>0.2002247550162452</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1928746271919498</v>
+        <v>0.1895696703315962</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1734542578643313</v>
+        <v>0.1995488444301302</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1977302869509892</v>
+        <v>0.1827473343518871</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2347342420686287</v>
+        <v>0.2041631982180483</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2030290387646706</v>
+        <v>0.2002049986261036</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2199077672534399</v>
+        <v>0.1860876265534209</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2035549329085111</v>
+        <v>0.1968820415784925</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2303048700560718</v>
+        <v>0.1872175050934289</v>
       </c>
       <c r="P2" t="n">
-        <v>0.183246496295408</v>
+        <v>0.1741597644572759</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.07535467380002003</v>
+        <v>0.210911530310757</v>
       </c>
       <c r="R2" t="n">
-        <v>0.06340926484505489</v>
+        <v>0.3381855038816597</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0938796137105794</v>
+        <v>0.3843026593585265</v>
       </c>
       <c r="T2" t="n">
-        <v>0.08254375429265896</v>
+        <v>0.3111083990292459</v>
       </c>
       <c r="U2" t="n">
-        <v>0.008606333749163137</v>
+        <v>0.2282587586095923</v>
       </c>
       <c r="V2" t="n">
-        <v>0.005229295506538592</v>
+        <v>0.2148019306081135</v>
       </c>
       <c r="W2" t="n">
-        <v>0.02216943270060909</v>
+        <v>0.264401440617307</v>
       </c>
       <c r="X2" t="n">
-        <v>0.005873177769163682</v>
+        <v>0.1310987206536439</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.002079333333419902</v>
+        <v>0.09091523911970727</v>
       </c>
       <c r="Z2" t="n">
-        <v>3.649293205750947e-08</v>
+        <v>0.03422088206865847</v>
       </c>
       <c r="AA2" t="n">
-        <v>6.177264092324175e-09</v>
+        <v>0.01625151788065021</v>
       </c>
       <c r="AB2" t="n">
-        <v>3.39265022657928e-10</v>
+        <v>0.007492867129150284</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.799896972530679e-11</v>
+        <v>0.008760287290419014</v>
       </c>
     </row>
     <row r="3">
@@ -5075,88 +5075,88 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1506859722665359</v>
+        <v>0.1462562872534464</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1555132384914087</v>
+        <v>0.1522938072789208</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1483341163793432</v>
+        <v>0.1557893734594698</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1136884191236345</v>
+        <v>0.1627581820534028</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1078014941597259</v>
+        <v>0.1637901435695799</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06568582903381109</v>
+        <v>0.07679028952696443</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05328611966508125</v>
+        <v>0.09485982415023168</v>
       </c>
       <c r="I3" t="n">
-        <v>0.09813070554693686</v>
+        <v>0.07384364243471442</v>
       </c>
       <c r="J3" t="n">
-        <v>0.01723671033978917</v>
+        <v>0.1123116041435225</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01335426425855269</v>
+        <v>0.06993435171948094</v>
       </c>
       <c r="L3" t="n">
-        <v>0.007257394443567206</v>
+        <v>0.08894855310990769</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01338222916260464</v>
+        <v>0.1198012770237071</v>
       </c>
       <c r="N3" t="n">
-        <v>0.006241391791747245</v>
+        <v>0.08883175548456622</v>
       </c>
       <c r="O3" t="n">
-        <v>0.002014362153023824</v>
+        <v>0.1130700040166765</v>
       </c>
       <c r="P3" t="n">
-        <v>0.0006098284865647942</v>
+        <v>0.1386634682217302</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.149300954028382e-07</v>
+        <v>0.1100554448102731</v>
       </c>
       <c r="R3" t="n">
-        <v>1.217676023561364e-07</v>
+        <v>0.003916138076829291</v>
       </c>
       <c r="S3" t="n">
-        <v>4.980099060497496e-07</v>
+        <v>0.007034284336888519</v>
       </c>
       <c r="T3" t="n">
-        <v>9.197840344051481e-08</v>
+        <v>0.003041078271172994</v>
       </c>
       <c r="U3" t="n">
-        <v>2.437287374125793e-09</v>
+        <v>0.001069303437851255</v>
       </c>
       <c r="V3" t="n">
-        <v>4.477740807237107e-10</v>
+        <v>0.0001764851819637577</v>
       </c>
       <c r="W3" t="n">
-        <v>6.846399257065682e-10</v>
+        <v>0.0003753696704672816</v>
       </c>
       <c r="X3" t="n">
-        <v>7.899917103870527e-11</v>
+        <v>8.514289597968753e-05</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.905963021439301e-11</v>
+        <v>4.138839318510865e-05</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.18829679528784e-14</v>
+        <v>9.455199043557029e-06</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.677880641008791e-15</v>
+        <v>3.212300350281837e-06</v>
       </c>
       <c r="AB3" t="n">
-        <v>7.50116769833587e-17</v>
+        <v>1.119535984917389e-06</v>
       </c>
       <c r="AC3" t="n">
-        <v>3.229255299172317e-18</v>
+        <v>1.157085388524924e-06</v>
       </c>
     </row>
     <row r="4">
@@ -5166,88 +5166,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1506859844279431</v>
+        <v>0.1462562924629094</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1555132573446338</v>
+        <v>0.152293821420826</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1483341238674208</v>
+        <v>0.1557893928855232</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1136888558118363</v>
+        <v>0.1627582143651431</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1078023596398655</v>
+        <v>0.1637901775518998</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06568668095067201</v>
+        <v>0.07679167933522719</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05328686607037843</v>
+        <v>0.09486122578980014</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09813149870175079</v>
+        <v>0.07384491102408332</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1307166747231404</v>
+        <v>0.1123137041018871</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1235612202326919</v>
+        <v>0.06993595638273666</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1383764807225711</v>
+        <v>0.06036076352758913</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1280133342875263</v>
+        <v>0.04814091176091414</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1414361360345328</v>
+        <v>0.06094361962949684</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1448726046710633</v>
+        <v>0.05134054470645961</v>
       </c>
       <c r="P4" t="n">
-        <v>0.1623054815566942</v>
+        <v>0.04276844997278974</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1838196380183069</v>
+        <v>0.05087105278995965</v>
       </c>
       <c r="R4" t="n">
-        <v>0.183420680775312</v>
+        <v>0.09071821148646766</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1861903876846235</v>
+        <v>0.07843748603731888</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1678902205201773</v>
+        <v>0.09596908805802279</v>
       </c>
       <c r="U4" t="n">
-        <v>0.2147248105522515</v>
+        <v>0.1142090789949711</v>
       </c>
       <c r="V4" t="n">
-        <v>0.1782386708641167</v>
+        <v>0.106444555413774</v>
       </c>
       <c r="W4" t="n">
-        <v>0.115182444170273</v>
+        <v>0.09069876552852546</v>
       </c>
       <c r="X4" t="n">
-        <v>0.1006639413307973</v>
+        <v>0.1128400867706393</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.1081261334094381</v>
+        <v>0.1368766097136465</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.1060538937858845</v>
+        <v>0.2178314293928617</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.09503921655730753</v>
+        <v>0.2325792421756144</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.1143062136346011</v>
+        <v>0.2466466603021483</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.05335426686928122</v>
+        <v>0.2287101703986718</v>
       </c>
     </row>
     <row r="5">
@@ -5257,88 +5257,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1506905625682889</v>
+        <v>0.1462582535510888</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1555203544982925</v>
+        <v>0.1522991450696054</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1483369426188968</v>
+        <v>0.1557967057088391</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1136834812238483</v>
+        <v>0.1627703781967293</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1077893707018454</v>
+        <v>0.1638029702749063</v>
       </c>
       <c r="G5" t="n">
-        <v>0.06567309260461285</v>
+        <v>0.07677365598485787</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0532748760525947</v>
+        <v>0.09484447196828939</v>
       </c>
       <c r="I5" t="n">
-        <v>0.09811958178574133</v>
+        <v>0.07382876638171385</v>
       </c>
       <c r="J5" t="n">
-        <v>0.111054246130761</v>
+        <v>0.1122861663843212</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1321781277427459</v>
+        <v>0.06991361669333555</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1135882812462532</v>
+        <v>0.06880459808668803</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1236136002115505</v>
+        <v>0.06423362635693645</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1135617347097721</v>
+        <v>0.06764450804615013</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1287620076506658</v>
+        <v>0.06454119574300296</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1035074375217014</v>
+        <v>0.06022450542881186</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.04405865757599076</v>
+        <v>0.07310860772034836</v>
       </c>
       <c r="R5" t="n">
-        <v>0.0372268371265528</v>
+        <v>0.1180636461090577</v>
       </c>
       <c r="S5" t="n">
-        <v>0.05462904375150478</v>
+        <v>0.1333409426179585</v>
       </c>
       <c r="T5" t="n">
-        <v>0.05687308886423917</v>
+        <v>0.1088427633552996</v>
       </c>
       <c r="U5" t="n">
-        <v>0.01141623572934534</v>
+        <v>0.08069382364434668</v>
       </c>
       <c r="V5" t="n">
-        <v>0.008813688241631482</v>
+        <v>0.0896687660275676</v>
       </c>
       <c r="W5" t="n">
-        <v>0.03636101140736125</v>
+        <v>0.103718966006319</v>
       </c>
       <c r="X5" t="n">
-        <v>0.01218721211929602</v>
+        <v>0.06121009259494167</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.004776292709696404</v>
+        <v>0.04524488892766503</v>
       </c>
       <c r="Z5" t="n">
-        <v>6.291754256829778e-06</v>
+        <v>0.01901344658129826</v>
       </c>
       <c r="AA5" t="n">
-        <v>1.156440340909376e-06</v>
+        <v>0.009826488273546024</v>
       </c>
       <c r="AB5" t="n">
-        <v>6.765486481669744e-08</v>
+        <v>0.004885684798368763</v>
       </c>
       <c r="AC5" t="n">
-        <v>3.872676151541911e-09</v>
+        <v>0.005872659871255418</v>
       </c>
     </row>
     <row r="6">
@@ -5348,88 +5348,88 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1311540983208403</v>
+        <v>0.1377477394407782</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1237148686033728</v>
+        <v>0.1285628872783508</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1343562990392054</v>
+        <v>0.1233236369595056</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1650171413962835</v>
+        <v>0.1136027931069471</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1630342256943325</v>
+        <v>0.1120873055667937</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2051828505941586</v>
+        <v>0.1742601923081624</v>
       </c>
       <c r="H6" t="n">
-        <v>0.223398188426367</v>
+        <v>0.1586999281309689</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1767165430831784</v>
+        <v>0.1791626857097252</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2372477594670976</v>
+        <v>0.1404694385132682</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2156070911387666</v>
+        <v>0.1804002914820515</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2494896624358235</v>
+        <v>0.1535154915971928</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2270129139935917</v>
+        <v>0.1204083089938424</v>
       </c>
       <c r="N6" t="n">
-        <v>0.2508068026518839</v>
+        <v>0.1558050461131879</v>
       </c>
       <c r="O6" t="n">
-        <v>0.2383997024807699</v>
+        <v>0.1294720443924429</v>
       </c>
       <c r="P6" t="n">
-        <v>0.2707457546597122</v>
+        <v>0.1065158122038104</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.3485524331615413</v>
+        <v>0.1168047672124707</v>
       </c>
       <c r="R6" t="n">
-        <v>0.3588051345323462</v>
+        <v>0.2041956088498124</v>
       </c>
       <c r="S6" t="n">
-        <v>0.331168537041445</v>
+        <v>0.1643536241368718</v>
       </c>
       <c r="T6" t="n">
-        <v>0.3668621506316134</v>
+        <v>0.2231307264155747</v>
       </c>
       <c r="U6" t="n">
-        <v>0.3662704956349934</v>
+        <v>0.2786831431230725</v>
       </c>
       <c r="V6" t="n">
-        <v>0.4248976970727551</v>
+        <v>0.3048528218670929</v>
       </c>
       <c r="W6" t="n">
-        <v>0.5301233156936636</v>
+        <v>0.2883201924725522</v>
       </c>
       <c r="X6" t="n">
-        <v>0.5673524287878502</v>
+        <v>0.3602918474203589</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.5771206221423115</v>
+        <v>0.352359793958578</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.5798435147179603</v>
+        <v>0.2763011860741394</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.5725707475371385</v>
+        <v>0.2850864753522503</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.6120746197208281</v>
+        <v>0.2898751529826233</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.5520134839751725</v>
+        <v>0.2887188114564668</v>
       </c>
     </row>
     <row r="7">
@@ -5439,88 +5439,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1448214369221073</v>
+        <v>0.1437344312350759</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1462543466256413</v>
+        <v>0.1453928631827769</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1445300984624733</v>
+        <v>0.1462945823542682</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1667632896934591</v>
+        <v>0.1474032068795435</v>
       </c>
       <c r="F7" t="n">
-        <v>0.176983031374768</v>
+        <v>0.1476386830265524</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1996953491549169</v>
+        <v>0.2193278405535836</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2011166173691711</v>
+        <v>0.2068574089121926</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1785896400286267</v>
+        <v>0.2191757239976127</v>
       </c>
       <c r="J7" t="n">
-        <v>0.06869790407053419</v>
+        <v>0.1976575595141371</v>
       </c>
       <c r="K7" t="n">
-        <v>0.06427271277120111</v>
+        <v>0.2237607007795946</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03856863031724144</v>
+        <v>0.2732244571433732</v>
       </c>
       <c r="M7" t="n">
-        <v>0.06060648335572123</v>
+        <v>0.3396568148749653</v>
       </c>
       <c r="N7" t="n">
-        <v>0.03304272278690651</v>
+        <v>0.2727020231899642</v>
       </c>
       <c r="O7" t="n">
-        <v>0.01396275672851669</v>
+        <v>0.3236070371341366</v>
       </c>
       <c r="P7" t="n">
-        <v>0.004847153193145761</v>
+        <v>0.3700031677092042</v>
       </c>
       <c r="Q7" t="n">
-        <v>7.145622640316497e-06</v>
+        <v>0.3184204105897748</v>
       </c>
       <c r="R7" t="n">
-        <v>4.306554076274866e-06</v>
+        <v>0.03467686046276629</v>
       </c>
       <c r="S7" t="n">
-        <v>1.47829990075449e-05</v>
+        <v>0.06156928389905959</v>
       </c>
       <c r="T7" t="n">
-        <v>3.110214245252411e-06</v>
+        <v>0.02891177307713054</v>
       </c>
       <c r="U7" t="n">
-        <v>7.538319258112102e-08</v>
+        <v>0.01112480900894784</v>
       </c>
       <c r="V7" t="n">
-        <v>1.526295149222204e-08</v>
+        <v>0.00180368312901993</v>
       </c>
       <c r="W7" t="n">
-        <v>2.631144733928565e-08</v>
+        <v>0.003561170560475457</v>
       </c>
       <c r="X7" t="n">
-        <v>3.230160965403908e-09</v>
+        <v>0.0008660263194663209</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.041651022949877e-10</v>
+        <v>0.000436593054252055</v>
       </c>
       <c r="Z7" t="n">
-        <v>2.86132579744598e-13</v>
+        <v>0.0001042861129288357</v>
       </c>
       <c r="AA7" t="n">
-        <v>4.106159150765352e-14</v>
+        <v>3.644440560516996e-05</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.863238760532135e-15</v>
+        <v>1.298999987464516e-05</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.13063060173565e-17</v>
+        <v>1.356946591989501e-05</v>
       </c>
     </row>
     <row r="8">
@@ -5530,88 +5530,88 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1316084346353195</v>
+        <v>0.1379499822346346</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1244780134719671</v>
+        <v>0.1291417807593745</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1347192312439349</v>
+        <v>0.124102985507927</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1651400499435369</v>
+        <v>0.1146770318780126</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1635993151099685</v>
+        <v>0.113216569732008</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2051827980065705</v>
+        <v>0.1758315872749592</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2227627052244578</v>
+        <v>0.160307470716921</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1768577729894346</v>
+        <v>0.1805954260220203</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2373164183176885</v>
+        <v>0.1422141929909768</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2162923417874132</v>
+        <v>0.1818918847247523</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2496905120698729</v>
+        <v>0.1549411379091455</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2274636717355656</v>
+        <v>0.1216714344362138</v>
       </c>
       <c r="N8" t="n">
-        <v>0.2513562791166463</v>
+        <v>0.1571910059581422</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2416836962598887</v>
+        <v>0.1307516689138527</v>
       </c>
       <c r="P8" t="n">
-        <v>0.2747378482867736</v>
+        <v>0.1076648320063777</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.3482072368914053</v>
+        <v>0.1198281865664164</v>
       </c>
       <c r="R8" t="n">
-        <v>0.3571336543990555</v>
+        <v>0.2102440311334068</v>
       </c>
       <c r="S8" t="n">
-        <v>0.3341171368029337</v>
+        <v>0.1709617196133761</v>
       </c>
       <c r="T8" t="n">
-        <v>0.3258275834986625</v>
+        <v>0.2289961717935535</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3989820465137667</v>
+        <v>0.2859610831812183</v>
       </c>
       <c r="V8" t="n">
-        <v>0.3828206326042325</v>
+        <v>0.2822517577724682</v>
       </c>
       <c r="W8" t="n">
-        <v>0.2961637690320058</v>
+        <v>0.2489240951443536</v>
       </c>
       <c r="X8" t="n">
-        <v>0.3139232366837328</v>
+        <v>0.3336080833449701</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.3078976175819092</v>
+        <v>0.374125486832966</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.3140962632486685</v>
+        <v>0.4525193145710698</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.3323888732879062</v>
+        <v>0.4562166196119836</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.2736190986504389</v>
+        <v>0.4510855252518498</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.3946322452648711</v>
+        <v>0.4679233444318786</v>
       </c>
     </row>
   </sheetData>
